--- a/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
+++ b/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="175">
   <si>
     <t xml:space="preserve">last updated</t>
   </si>
@@ -220,7 +220,7 @@
     <t xml:space="preserve">A7</t>
   </si>
   <si>
-    <t xml:space="preserve">lable connector pins</t>
+    <t xml:space="preserve">lable connector pins, especially the uart pinout</t>
   </si>
   <si>
     <t xml:space="preserve">A8</t>
@@ -238,13 +238,25 @@
     <t xml:space="preserve">A10</t>
   </si>
   <si>
+    <t xml:space="preserve">uart pins too close to jtag(“actually its a swd connection”🤓) header. Connector plastic like 0.5mm from touching uart pin, cannot put dupont on uart :(</t>
+  </si>
+  <si>
     <t xml:space="preserve">A11</t>
   </si>
   <si>
+    <t xml:space="preserve">make HRLV connector a 2x3 molex, to match what the voltage tap has</t>
+  </si>
+  <si>
     <t xml:space="preserve">A12</t>
   </si>
   <si>
+    <t xml:space="preserve">interlog use constant current source, not pull up. Like 120mA max CC from HRLV sounds enough</t>
+  </si>
+  <si>
     <t xml:space="preserve">A13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check thermals over long runtime</t>
   </si>
   <si>
     <t xml:space="preserve">A14</t>
@@ -1017,8 +1029,8 @@
   </sheetPr>
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S12" activeCellId="0" sqref="S12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S16" activeCellId="0" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1274,7 +1286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1334,7 +1346,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1350,8 +1362,11 @@
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L12, $G$15:$G$1000, 0)), "n/a")</f>
         <v>n/a</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1361,14 +1376,17 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M13" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L13, $G$15:$G$1000, 0)), "n/a")</f>
         <v>n/a</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1378,25 +1396,31 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M14" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L14, $G$15:$G$1000, 0)), "n/a")</f>
         <v>spi0 SCLK</v>
       </c>
+      <c r="S14" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L15" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M15" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L15, $G$15:$G$1000, 0)), "n/a")</f>
         <v>spi0 MISO/POCI</v>
       </c>
+      <c r="S15" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L16" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M16" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L16, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1405,7 +1429,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1415,7 +1439,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="L17" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M17" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L17, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1424,19 +1448,19 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
@@ -1444,7 +1468,7 @@
       </c>
       <c r="H18" s="6"/>
       <c r="L18" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M18" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L18, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1459,13 +1483,13 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M19" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L19, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1480,21 +1504,21 @@
         <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
       <c r="G20" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M20" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L20, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1508,18 +1532,18 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
       <c r="G21" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M21" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L21, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1533,18 +1557,18 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
       <c r="G22" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M22" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L22, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1558,18 +1582,18 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
       <c r="G23" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M23" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L23, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1583,18 +1607,18 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
       <c r="G24" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M24" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L24, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1608,18 +1632,18 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M25" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L25, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1633,18 +1657,18 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M26" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L26, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1656,24 +1680,24 @@
         <v>33</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M27" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L27, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1685,24 +1709,24 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M28" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L28, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1711,27 +1735,27 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M29" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L29, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1740,27 +1764,27 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M30" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L30, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1769,7 +1793,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L31" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M31" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L31, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1778,7 +1802,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1788,7 +1812,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="L32" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M32" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L32, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1803,13 +1827,13 @@
         <v>15</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6" t="s">
@@ -1817,7 +1841,7 @@
       </c>
       <c r="H33" s="6"/>
       <c r="L33" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M33" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L33, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1832,13 +1856,13 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M34" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L34, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1850,26 +1874,26 @@
         <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M35" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L35, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1881,26 +1905,26 @@
         <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M36" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L36, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1912,26 +1936,26 @@
         <v>27</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M37" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L37, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1943,26 +1967,26 @@
         <v>27</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M38" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L38, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1974,24 +1998,24 @@
         <v>27</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M39" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L39, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2003,13 +2027,13 @@
         <v>27</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -2017,10 +2041,10 @@
         <v>37</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M40" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L40, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2032,13 +2056,13 @@
         <v>27</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -2046,10 +2070,10 @@
         <v>44</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M41" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L41, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2061,24 +2085,24 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M42" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L42, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2090,24 +2114,24 @@
         <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M43" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L43, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2119,24 +2143,24 @@
         <v>27</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M44" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L44, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2148,24 +2172,24 @@
         <v>27</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M45" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L45, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2177,26 +2201,26 @@
         <v>27</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="L46" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M46" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L46, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2208,26 +2232,26 @@
         <v>27</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="L47" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M47" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L47, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2239,26 +2263,26 @@
         <v>27</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>137</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="L48" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M48" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L48, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2270,24 +2294,24 @@
         <v>27</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M49" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L49, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2299,26 +2323,26 @@
         <v>27</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M50" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L50, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2330,26 +2354,26 @@
         <v>27</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M51" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L51, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2361,24 +2385,24 @@
         <v>27</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M52" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L52, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2393,21 +2417,21 @@
         <v>39</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M53" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L53, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2422,21 +2446,21 @@
         <v>39</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M54" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L54, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2453,7 +2477,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="L55" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M55" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L55, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2470,7 +2494,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="L56" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M56" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L56, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2487,7 +2511,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="L57" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M57" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L57, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2504,7 +2528,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="L58" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M58" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L58, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2513,7 +2537,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L59" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M59" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L59, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2522,7 +2546,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L60" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M60" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L60, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2531,7 +2555,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L61" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M61" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L61, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2540,7 +2564,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L62" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M62" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L62, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2549,7 +2573,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L63" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M63" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L63, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2558,7 +2582,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L64" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M64" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L64, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2567,7 +2591,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L65" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M65" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L65, $G$15:$G$1000, 0)), "n/a")</f>

--- a/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
+++ b/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="182">
   <si>
     <t xml:space="preserve">last updated</t>
   </si>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">A3</t>
   </si>
   <si>
-    <t xml:space="preserve">great leds. 1MA kinda bright though</t>
+    <t xml:space="preserve">great leds. 1MA kinda bright though. blue -%30. green -%20, red is fine. Yellow +%20.</t>
   </si>
   <si>
     <t xml:space="preserve">Root</t>
@@ -250,7 +250,7 @@
     <t xml:space="preserve">A12</t>
   </si>
   <si>
-    <t xml:space="preserve">interlog use constant current source, not pull up. Like 120mA max CC from HRLV sounds enough</t>
+    <t xml:space="preserve">Make interlock use constant current source, not pull up. Like 120mA max CC from HRLV sounds enough</t>
   </si>
   <si>
     <t xml:space="preserve">A13</t>
@@ -262,12 +262,18 @@
     <t xml:space="preserve">A14</t>
   </si>
   <si>
+    <t xml:space="preserve">absurd idle power draw!?!? 12V:32mA , 24V:17mA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bus IO</t>
   </si>
   <si>
     <t xml:space="preserve">A15</t>
   </si>
   <si>
+    <t xml:space="preserve">finger enough to short stuff. Do not poke board</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perf</t>
   </si>
   <si>
@@ -283,6 +289,9 @@
     <t xml:space="preserve">A16</t>
   </si>
   <si>
+    <t xml:space="preserve">space out indicator leds more</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pin</t>
   </si>
   <si>
@@ -292,6 +301,9 @@
     <t xml:space="preserve">A17</t>
   </si>
   <si>
+    <t xml:space="preserve">avoid putting LEDs on their side, fov a significant issue</t>
+  </si>
+  <si>
     <t xml:space="preserve">controller CS</t>
   </si>
   <si>
@@ -304,6 +316,9 @@
     <t xml:space="preserve">A18</t>
   </si>
   <si>
+    <t xml:space="preserve">jtag connector cable points the wrong way, in kicad connector needs rotated 180deg if cable intends to come in from south of schematic</t>
+  </si>
+  <si>
     <t xml:space="preserve">DO</t>
   </si>
   <si>
@@ -313,6 +328,9 @@
     <t xml:space="preserve">A19</t>
   </si>
   <si>
+    <t xml:space="preserve">move IL control to be besides the relay</t>
+  </si>
+  <si>
     <t xml:space="preserve">DI</t>
   </si>
   <si>
@@ -349,7 +367,7 @@
     <t xml:space="preserve">MC Hall Sensor</t>
   </si>
   <si>
-    <t xml:space="preserve">percise CS</t>
+    <t xml:space="preserve">precise CS</t>
   </si>
   <si>
     <t xml:space="preserve">B13</t>
@@ -358,7 +376,7 @@
     <t xml:space="preserve">A25</t>
   </si>
   <si>
-    <t xml:space="preserve">inpercise CS</t>
+    <t xml:space="preserve">imprecise CS</t>
   </si>
   <si>
     <t xml:space="preserve">B7</t>
@@ -527,6 +545,9 @@
   </si>
   <si>
     <t xml:space="preserve">AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0 #3</t>
   </si>
   <si>
     <t xml:space="preserve">B15</t>
@@ -1029,18 +1050,18 @@
   </sheetPr>
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S16" activeCellId="0" sqref="S16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="3.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="9" style="1" width="9.14"/>
@@ -1160,7 +1181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1386,7 +1407,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1418,7 +1439,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L16" s="3" t="s">
         <v>60</v>
       </c>
@@ -1426,10 +1447,13 @@
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L16, $G$15:$G$1000, 0)), "n/a")</f>
         <v>spi0 MOSI/PICO</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S16" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1439,28 +1463,31 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="L17" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M17" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L17, $G$15:$G$1000, 0)), "n/a")</f>
         <v>gpio</v>
       </c>
+      <c r="S17" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
@@ -1468,14 +1495,17 @@
       </c>
       <c r="H18" s="6"/>
       <c r="L18" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M18" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L18, $G$15:$G$1000, 0)), "n/a")</f>
         <v>spi1 MISO/POCI</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S18" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1483,18 +1513,21 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M19" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L19, $G$15:$G$1000, 0)), "n/a")</f>
         <v>spi1 SCLK</v>
       </c>
+      <c r="S19" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
@@ -1504,35 +1537,38 @@
         <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
       <c r="G20" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M20" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L20, $G$15:$G$1000, 0)), "n/a")</f>
         <v>spi1 MOSI/PICO</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S20" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
@@ -1540,15 +1576,18 @@
         <v>56</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M21" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L21, $G$15:$G$1000, 0)), "n/a")</f>
         <v>SWDIO</v>
       </c>
+      <c r="S21" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
@@ -1557,7 +1596,7 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
@@ -1565,10 +1604,10 @@
         <v>58</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M22" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L22, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1582,7 +1621,7 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
@@ -1590,10 +1629,10 @@
         <v>60</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M23" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L23, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1607,18 +1646,18 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
       <c r="G24" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M24" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L24, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1632,18 +1671,18 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M25" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L25, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1657,22 +1696,22 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M26" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L26, $G$15:$G$1000, 0)), "n/a")</f>
-        <v>AI</v>
+        <v>A0 #3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1680,24 +1719,24 @@
         <v>33</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M27" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L27, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1709,24 +1748,24 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M28" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L28, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1735,27 +1774,27 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M29" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L29, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1764,27 +1803,27 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M30" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L30, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1793,7 +1832,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L31" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M31" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L31, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1802,7 +1841,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1812,7 +1851,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="L32" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="M32" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L32, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1827,13 +1866,13 @@
         <v>15</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6" t="s">
@@ -1841,7 +1880,7 @@
       </c>
       <c r="H33" s="6"/>
       <c r="L33" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M33" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L33, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1856,13 +1895,13 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="M34" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L34, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1874,26 +1913,26 @@
         <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M35" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L35, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1905,26 +1944,26 @@
         <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M36" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L36, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1936,26 +1975,26 @@
         <v>27</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="M37" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L37, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1967,26 +2006,26 @@
         <v>27</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M38" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L38, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1998,24 +2037,24 @@
         <v>27</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M39" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L39, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2027,13 +2066,13 @@
         <v>27</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -2041,10 +2080,10 @@
         <v>37</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M40" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L40, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2056,13 +2095,13 @@
         <v>27</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -2070,10 +2109,10 @@
         <v>44</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L41, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2085,24 +2124,24 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="M42" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L42, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2114,24 +2153,24 @@
         <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M43" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L43, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2143,24 +2182,24 @@
         <v>27</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M44" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L44, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2172,24 +2211,24 @@
         <v>27</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M45" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L45, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2201,26 +2240,26 @@
         <v>27</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M46" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L46, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2232,26 +2271,26 @@
         <v>27</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M47" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L47, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2263,55 +2302,55 @@
         <v>27</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M48" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L48, $G$15:$G$1000, 0)), "n/a")</f>
         <v>n/a</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="M49" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L49, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2323,26 +2362,26 @@
         <v>27</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="M50" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L50, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2354,26 +2393,26 @@
         <v>27</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="3" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="M51" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L51, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2385,24 +2424,24 @@
         <v>27</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M52" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L52, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2417,21 +2456,21 @@
         <v>39</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="3" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="M53" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L53, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2446,21 +2485,21 @@
         <v>39</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M54" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L54, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2477,7 +2516,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="L55" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M55" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L55, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2494,7 +2533,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="L56" s="3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="M56" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L56, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2511,7 +2550,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="L57" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="M57" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L57, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2528,7 +2567,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="L58" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="M58" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L58, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2537,7 +2576,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L59" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M59" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L59, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2546,7 +2585,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L60" s="3" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="M60" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L60, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2555,7 +2594,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L61" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="M61" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L61, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2564,7 +2603,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L62" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="M62" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L62, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2573,7 +2612,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L63" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M63" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L63, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2582,7 +2621,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L64" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M64" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L64, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2591,7 +2630,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L65" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="M65" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L65, $G$15:$G$1000, 0)), "n/a")</f>

--- a/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
+++ b/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="187">
   <si>
     <t xml:space="preserve">last updated</t>
   </si>
@@ -340,28 +340,43 @@
     <t xml:space="preserve">A20</t>
   </si>
   <si>
+    <t xml:space="preserve">one of the bucks died(audiably sounds different) after couple hours of being powered, both 5v and 3v3 rails turned off. 3V3 thigns work fine if directly apply 3v3 to rail</t>
+  </si>
+  <si>
     <t xml:space="preserve">spi0 MOSI/PICO</t>
   </si>
   <si>
     <t xml:space="preserve">A21</t>
   </si>
   <si>
+    <t xml:space="preserve">w5500 reserved pins must be tied to ground</t>
+  </si>
+  <si>
     <t xml:space="preserve">spi1 SCLK</t>
   </si>
   <si>
     <t xml:space="preserve">A22</t>
   </si>
   <si>
+    <t xml:space="preserve">w5500 use this crystal isntead https://www.digikey.com/en/products/detail/ecs-inc/ECS-250-10-37-JTN-TR/8023262?gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=17922795960&amp;gclid=CjwKCAiAjc7KBhBvEiwAE2BDOTfLeOBIzINr9MwUFi-HKbTRhdRcOiDyKsH142M90xEiJQJMj9BQ5xoCvNAQAvD_BwE</t>
+  </si>
+  <si>
     <t xml:space="preserve">spi1 MISO/POCI</t>
   </si>
   <si>
     <t xml:space="preserve">A23</t>
   </si>
   <si>
+    <t xml:space="preserve">w5500 keeps the 18pF on each side of sicllator</t>
+  </si>
+  <si>
     <t xml:space="preserve">spi1 MOSI/PICO</t>
   </si>
   <si>
     <t xml:space="preserve">A24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use bjt to drive rj45 leds</t>
   </si>
   <si>
     <t xml:space="preserve">MC Hall Sensor</t>
@@ -1050,8 +1065,8 @@
   </sheetPr>
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S27" activeCellId="0" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1589,7 +1604,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>43</v>
       </c>
@@ -1613,8 +1628,11 @@
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L22, $G$15:$G$1000, 0)), "n/a")</f>
         <v>SWCLK</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S22" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
@@ -1629,14 +1647,17 @@
         <v>60</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M23" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L23, $G$15:$G$1000, 0)), "n/a")</f>
         <v>UART2 tx</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,17 +1675,20 @@
         <v>73</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M24" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L24, $G$15:$G$1000, 0)), "n/a")</f>
         <v>UART2 rx</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S24" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
@@ -1679,14 +1703,17 @@
         <v>69</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M25" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L25, $G$15:$G$1000, 0)), "n/a")</f>
         <v>PWM</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,25 +1731,28 @@
         <v>78</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M26" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L26, $G$15:$G$1000, 0)), "n/a")</f>
         <v>A0 #3</v>
       </c>
+      <c r="S26" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>76</v>
@@ -1730,13 +1760,13 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>77</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M27" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L27, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1748,10 +1778,10 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>76</v>
@@ -1759,13 +1789,13 @@
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>77</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M28" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L28, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1774,13 +1804,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>80</v>
@@ -1788,13 +1818,13 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M29" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L29, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1803,13 +1833,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>84</v>
@@ -1817,13 +1847,13 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="M30" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L30, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1832,7 +1862,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L31" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M31" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L31, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1841,7 +1871,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1851,7 +1881,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="L32" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="M32" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L32, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1866,7 +1896,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>67</v>
@@ -1880,7 +1910,7 @@
       </c>
       <c r="H33" s="6"/>
       <c r="L33" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M33" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L33, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1901,7 +1931,7 @@
         <v>72</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="M34" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L34, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1913,26 +1943,26 @@
         <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M35" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L35, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1944,26 +1974,26 @@
         <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M36" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L36, $G$15:$G$1000, 0)), "n/a")</f>
@@ -1975,26 +2005,26 @@
         <v>27</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="3" t="s">
         <v>82</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M37" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L37, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2006,26 +2036,26 @@
         <v>27</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="3" t="s">
         <v>86</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M38" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L38, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2037,10 +2067,10 @@
         <v>27</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>76</v>
@@ -2048,13 +2078,13 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>77</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M39" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L39, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2066,10 +2096,10 @@
         <v>27</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>76</v>
@@ -2083,7 +2113,7 @@
         <v>77</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M40" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L40, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2095,10 +2125,10 @@
         <v>27</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>76</v>
@@ -2112,7 +2142,7 @@
         <v>77</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M41" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L41, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2124,10 +2154,10 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>76</v>
@@ -2135,13 +2165,13 @@
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>77</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M42" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L42, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2153,10 +2183,10 @@
         <v>27</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>76</v>
@@ -2164,13 +2194,13 @@
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>77</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M43" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L43, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2182,10 +2212,10 @@
         <v>27</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>84</v>
@@ -2193,13 +2223,13 @@
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>77</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M44" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L44, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2211,10 +2241,10 @@
         <v>27</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>80</v>
@@ -2222,13 +2252,13 @@
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M45" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L45, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2240,26 +2270,26 @@
         <v>27</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M46" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L46, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2271,26 +2301,26 @@
         <v>27</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M47" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L47, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2302,26 +2332,26 @@
         <v>27</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M48" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L48, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2333,24 +2363,24 @@
         <v>27</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="M49" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L49, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2362,26 +2392,26 @@
         <v>27</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M50" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L50, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2393,26 +2423,26 @@
         <v>27</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>77</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M51" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L51, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2424,10 +2454,10 @@
         <v>27</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>84</v>
@@ -2435,13 +2465,13 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>77</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M52" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L52, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2456,7 +2486,7 @@
         <v>39</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>84</v>
@@ -2464,13 +2494,13 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>77</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M53" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L53, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2485,7 +2515,7 @@
         <v>39</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>76</v>
@@ -2493,13 +2523,13 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M54" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L54, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2516,7 +2546,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="L55" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M55" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L55, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2533,7 +2563,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="L56" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M56" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L56, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2550,7 +2580,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="L57" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M57" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L57, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2567,7 +2597,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="L58" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M58" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L58, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2576,7 +2606,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L59" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M59" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L59, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2585,7 +2615,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L60" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M60" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L60, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2594,7 +2624,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L61" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M61" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L61, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2603,7 +2633,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L62" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M62" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L62, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2612,7 +2642,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L63" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M63" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L63, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2621,7 +2651,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L64" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M64" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L64, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2630,7 +2660,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L65" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M65" s="3" t="str">
         <f aca="false">IFERROR(INDEX($H$15:$H$1000, MATCH($L65, $G$15:$G$1000, 0)), "n/a")</f>
@@ -2711,6 +2741,9 @@
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="S24" r:id="rId2" display="https://www.digikey.com/en/products/detail/ecs-inc/ECS-250-10-37-JTN-TR/8023262?gclsrc=aw.ds&amp;gad_source=1&amp;gad_campaignid=17922795960&amp;gclid=CjwKCAiAjc7KBhBvEiwAE2BDOTfLeOBIzINr9MwUFi-HKbTRhdRcOiDyKsH142M90xEiJQJMj9BQ5xoCvNAQAvD_BwE"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2718,6 +2751,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
+++ b/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\BeeMS\hardware\MasterBoard_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D9862F-D5C0-4AD1-87FD-6250E0DBF13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D816DD99-A8B6-4B4C-AABD-5B18803C7311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0" sheetId="1" r:id="rId1"/>
+    <sheet name="1.1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -91,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="202">
   <si>
     <t>last updated</t>
   </si>
@@ -360,9 +361,6 @@
     <t>A21</t>
   </si>
   <si>
-    <t>w5500 reserved pins must be tied to ground</t>
-  </si>
-  <si>
     <t>spi1 SCLK</t>
   </si>
   <si>
@@ -655,6 +653,51 @@
   </si>
   <si>
     <t>parts spacing fine, but hard to access once all in place. Rearrange</t>
+  </si>
+  <si>
+    <t>prototype</t>
+  </si>
+  <si>
+    <t>overview</t>
+  </si>
+  <si>
+    <t>changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itteration. </t>
+  </si>
+  <si>
+    <t>swapped 5v and 3v3 rail supply bucks from RAA211xxx to AP64060ZQ</t>
+  </si>
+  <si>
+    <t>added UV proteciton for sheet "GLV PSU"</t>
+  </si>
+  <si>
+    <t>corrected w5500 layout and oscillator choice with tested design from "W5500 testing" project</t>
+  </si>
+  <si>
+    <t>added UV proteciton for sheet "PWM sig bank 1"</t>
+  </si>
+  <si>
+    <t>nuh uh</t>
+  </si>
+  <si>
+    <t>todo before</t>
+  </si>
+  <si>
+    <t>expand PWM sig bank 1</t>
+  </si>
+  <si>
+    <t>test the sig bank</t>
+  </si>
+  <si>
+    <t>molex connector for da ethernet :skull: to get around the hv rated cable wire rule</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>dim indicator leds. Changed load resistor from 2.4k to 3.32k</t>
   </si>
 </sst>
 </file>
@@ -750,15 +793,6 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -778,6 +812,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1058,1620 +1101,1661 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6" style="4" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
-    <col min="9" max="12" width="9.140625" style="4"/>
-    <col min="13" max="13" width="20.5703125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="4"/>
-    <col min="15" max="15" width="13.7109375" style="4" customWidth="1"/>
-    <col min="16" max="18" width="9.140625" style="4"/>
-    <col min="19" max="19" width="26.85546875" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="2" width="14.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="20.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="16" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="26.85546875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="2">
         <v>46016</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="G1" s="4" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="S1" s="7" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="S1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="6" t="str">
+      <c r="M2" s="3" t="str">
         <f t="shared" ref="M2:M33" si="0">IFERROR(INDEX($H$15:$H$1000, MATCH($L2, $G$15:$G$1000, 0)), "n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="4" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4" t="str">
+      <c r="K3" s="1" t="str">
         <f>IFERROR(INDEX($H$15:$H$1000, MATCH($J3, $G$15:$G$1000, 0)), "n/a")</f>
         <v>n/a</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>n/a</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>187</v>
+      <c r="M3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>n/a</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="L4" s="6" t="s">
+      <c r="H4" s="9"/>
+      <c r="L4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>n/a</v>
-      </c>
-      <c r="S4" s="4" t="s">
+      <c r="M4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>n/a</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="8" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>n/a</v>
-      </c>
-      <c r="S5" s="4" t="s">
+      <c r="M5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>n/a</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="L6" s="6" t="s">
+      <c r="H6" s="3"/>
+      <c r="L6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>n/a</v>
-      </c>
-      <c r="S6" s="4" t="s">
+      <c r="M6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>n/a</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="L7" s="6" t="s">
+      <c r="H7" s="3"/>
+      <c r="L7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="6" t="str">
+      <c r="M7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>gpio</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="L8" s="6" t="s">
+      <c r="H8" s="3"/>
+      <c r="L8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="6" t="str">
+      <c r="M8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>gpio</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="L9" s="6" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="L9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>n/a</v>
-      </c>
-      <c r="S9" s="4" t="s">
+      <c r="M9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>n/a</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="L10" s="6" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="L10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>n/a</v>
-      </c>
-      <c r="S10" s="4" t="s">
+      <c r="M10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>n/a</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="L11" s="6" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="L11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>n/a</v>
-      </c>
-      <c r="S11" s="4" t="s">
+      <c r="M11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>n/a</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="L12" s="6" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="L12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>n/a</v>
-      </c>
-      <c r="S12" s="4" t="s">
+      <c r="M12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>n/a</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="L13" s="6" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="L13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>n/a</v>
-      </c>
-      <c r="S13" s="4" t="s">
+      <c r="M13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>n/a</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="L14" s="6" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="L14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M14" s="6" t="str">
+      <c r="M14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>spi0 SCLK</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="S14" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="6" t="str">
+      <c r="M15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>spi0 MISO/POCI</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="S15" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M16" s="6" t="str">
+      <c r="M16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>spi0 MOSI/PICO</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="S16" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="L17" s="6" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="L17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="6" t="str">
+      <c r="M17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>gpio</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="S17" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="L18" s="6" t="s">
+      <c r="H18" s="9"/>
+      <c r="L18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="M18" s="6" t="str">
+      <c r="M18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>spi1 MISO/POCI</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="S18" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="8" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M19" s="6" t="str">
+      <c r="M19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>spi1 SCLK</v>
       </c>
-      <c r="S19" s="4" t="s">
+      <c r="S19" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="6" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M20" s="6" t="str">
+      <c r="M20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>spi1 MOSI/PICO</v>
       </c>
-      <c r="S20" s="4" t="s">
+      <c r="S20" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="6" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="M21" s="6" t="str">
+      <c r="M21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SWDIO</v>
       </c>
-      <c r="S21" s="4" t="s">
+      <c r="S21" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="6" t="s">
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="M22" s="6" t="str">
+      <c r="M22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SWCLK</v>
       </c>
-      <c r="S22" s="4" t="s">
+      <c r="S22" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="6" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M23" s="6" t="str">
+      <c r="M23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>UART2 tx</v>
       </c>
-      <c r="S23" s="4" t="s">
+    </row>
+    <row r="24" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" ht="195" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="L24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>UART2 rx</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PWM</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="6" t="s">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>A0 #3</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>n/a</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>MCAN0 TX</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>MCAN0 RX</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="L24" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="M24" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>UART2 rx</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="M25" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>PWM</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="M26" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A0 #3</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="M27" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>n/a</v>
-      </c>
-      <c r="S27" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M28" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>MCAN0 TX</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="L29" s="6" t="s">
+      <c r="H30" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="M29" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>MCAN0 RX</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="6" t="s">
+      <c r="L30" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="M30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L31" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="M30" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L31" s="6" t="s">
+      <c r="M31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="M31" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="L32" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="L32" s="6" t="s">
+      <c r="M32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="M32" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="L33" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="L33" s="6" t="s">
+      <c r="M33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="M33" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="M34" s="6" t="str">
+      <c r="M34" s="3" t="str">
         <f t="shared" ref="M34:M65" si="1">IFERROR(INDEX($H$15:$H$1000, MATCH($L34, $G$15:$G$1000, 0)), "n/a")</f>
         <v>gpio</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="F35" s="8"/>
+      <c r="G35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>gpio</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>gpio</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>gpio</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M38" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H35" s="6" t="s">
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L35" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="M35" s="6" t="str">
+      <c r="H39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M39" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M40" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>gpio</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="B42" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M42" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M43" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H36" s="6" t="s">
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="L36" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="M36" s="6" t="str">
+      <c r="H44" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M44" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M45" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M46" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>gpio</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="M37" s="6" t="str">
+      <c r="B48" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M48" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M49" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>uart TX</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>gpio</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+    <row r="51" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="M38" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="B51" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M51" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="B52" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="M52" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M53" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="M39" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="M40" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="M41" s="6" t="str">
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M54" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="L55" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M55" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="L56" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M56" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="L57" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M57" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="L58" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M58" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L59" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M59" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L60" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>gpio</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="M42" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="M43" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="M44" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="M45" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="M46" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="M47" s="6" t="str">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L61" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>gpio</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="M48" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="M49" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>uart TX</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="M50" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>gpio</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="M51" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="M52" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="M53" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="M54" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="L55" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="M55" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="L56" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="M56" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="L57" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="M57" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="L58" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="M58" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L59" s="6" t="s">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L62" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="M59" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L60" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M60" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>gpio</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L61" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="M61" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>gpio</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L62" s="6" t="s">
+      <c r="M62" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L63" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M62" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L63" s="6" t="s">
+      <c r="M63" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L64" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="M63" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L64" s="6" t="s">
+      <c r="M64" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="65" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L65" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="M64" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>n/a</v>
-      </c>
-    </row>
-    <row r="65" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L65" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="M65" s="6" t="str">
+      <c r="M65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
     <row r="66" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
     </row>
     <row r="67" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
     <mergeCell ref="E55:F55"/>
     <mergeCell ref="E56:F56"/>
     <mergeCell ref="E57:F57"/>
@@ -2681,50 +2765,6 @@
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="K3">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
@@ -2743,4 +2783,107 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82506FE1-B017-4B5D-A74A-A8C038FEF2D3}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
+++ b/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\BeeMS\hardware\MasterBoard_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D816DD99-A8B6-4B4C-AABD-5B18803C7311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E02431-BFA1-4281-9FAB-E97B2003C929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1.0" sheetId="1" r:id="rId1"/>
+    <sheet name="1.0 routing" sheetId="1" r:id="rId1"/>
     <sheet name="1.1" sheetId="2" r:id="rId2"/>
+    <sheet name="1.1 power" sheetId="3" r:id="rId3"/>
+    <sheet name="1.1 routing" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -92,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="218">
   <si>
     <t>last updated</t>
   </si>
@@ -676,28 +678,76 @@
     <t>corrected w5500 layout and oscillator choice with tested design from "W5500 testing" project</t>
   </si>
   <si>
-    <t>added UV proteciton for sheet "PWM sig bank 1"</t>
-  </si>
-  <si>
     <t>nuh uh</t>
   </si>
   <si>
-    <t>todo before</t>
-  </si>
-  <si>
-    <t>expand PWM sig bank 1</t>
-  </si>
-  <si>
-    <t>test the sig bank</t>
-  </si>
-  <si>
     <t>molex connector for da ethernet :skull: to get around the hv rated cable wire rule</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
     <t>dim indicator leds. Changed load resistor from 2.4k to 3.32k</t>
+  </si>
+  <si>
+    <t>LV batt</t>
+  </si>
+  <si>
+    <t>GLV PSU</t>
+  </si>
+  <si>
+    <t>3.3V</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>designator</t>
+  </si>
+  <si>
+    <t>sheet name</t>
+  </si>
+  <si>
+    <t>default sheet name</t>
+  </si>
+  <si>
+    <t>PWM sig bank</t>
+  </si>
+  <si>
+    <t>Analog Fault Failsafe</t>
+  </si>
+  <si>
+    <t>Main Current Hall Sensing</t>
+  </si>
+  <si>
+    <t>load: typical (A)</t>
+  </si>
+  <si>
+    <t>load: max (A)</t>
+  </si>
+  <si>
+    <t>quiescent load: typical (A)</t>
+  </si>
+  <si>
+    <t>quiescent load: max (A)</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>swapped for 48 pin Q1 mcu</t>
+  </si>
+  <si>
+    <t>notes for future itterations</t>
+  </si>
+  <si>
+    <t>maybe add another onboard relay to control precharge, use MCHS to determine when precharge done/ for now we can just send CAN to the motec</t>
+  </si>
+  <si>
+    <t>swapped IL relay 12v  for 24v</t>
+  </si>
+  <si>
+    <t>U102</t>
   </si>
 </sst>
 </file>
@@ -724,7 +774,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,8 +787,20 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -787,11 +849,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -814,20 +955,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -841,6 +1014,94 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -921,6 +1182,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3CA6A1A-1FD3-48BF-BCF8-90408D82F5F9}" name="Table1" displayName="Table1" ref="A1:G3" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="7">
+  <autoFilter ref="A1:G3" xr:uid="{B3CA6A1A-1FD3-48BF-BCF8-90408D82F5F9}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F176D1B1-93A9-4FA3-9B13-4D1FB62C21AE}" name="sheet name"/>
+    <tableColumn id="2" xr3:uid="{EE80E7F9-AF23-49F4-943C-5BDA0C2DD776}" name="designator"/>
+    <tableColumn id="3" xr3:uid="{A5946CA3-79A2-4891-BEA3-782B6CE1AAF4}" name="load: typical (A)" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{F1B2DA7A-1733-4CED-911F-2548B461F4B4}" name="load: max (A)" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{FC4198F1-9F4C-462F-A1EC-84FC5B0E5DA5}" name="quiescent load: typical (A)" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{4AE8A94A-AE32-4F27-9526-6334655412FD}" name="quiescent load: max (A)" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{B9D254ED-3403-48E7-86C6-D472AEB43A1C}" name="notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1102,7 +1379,7 @@
   <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1388,7 @@
     <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
     <col min="9" max="12" width="9.140625" style="1"/>
@@ -1119,7 +1396,7 @@
     <col min="14" max="14" width="9.140625" style="1"/>
     <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
     <col min="16" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="26.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="123" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1141,11 +1418,11 @@
       <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
       <c r="S1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1729,8 +2006,8 @@
       <c r="D25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="3" t="s">
         <v>68</v>
       </c>
@@ -1757,8 +2034,8 @@
       <c r="D26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="3" t="s">
         <v>77</v>
       </c>
@@ -1789,8 +2066,8 @@
       <c r="D27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="3" t="s">
         <v>100</v>
       </c>
@@ -1821,8 +2098,8 @@
       <c r="D28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="3" t="s">
         <v>103</v>
       </c>
@@ -1850,8 +2127,8 @@
       <c r="D29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="3" t="s">
         <v>88</v>
       </c>
@@ -1879,8 +2156,8 @@
       <c r="D30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="3" t="s">
         <v>90</v>
       </c>
@@ -1986,10 +2263,10 @@
       <c r="D35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F35" s="8"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="3" t="s">
         <v>104</v>
       </c>
@@ -2017,10 +2294,10 @@
       <c r="D36" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="8"/>
+      <c r="F36" s="10"/>
       <c r="G36" s="3" t="s">
         <v>109</v>
       </c>
@@ -2048,10 +2325,10 @@
       <c r="D37" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F37" s="8"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="3" t="s">
         <v>81</v>
       </c>
@@ -2079,10 +2356,10 @@
       <c r="D38" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F38" s="8"/>
+      <c r="F38" s="10"/>
       <c r="G38" s="3" t="s">
         <v>85</v>
       </c>
@@ -2110,8 +2387,8 @@
       <c r="D39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="3" t="s">
         <v>122</v>
       </c>
@@ -2139,8 +2416,8 @@
       <c r="D40" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="3" t="s">
         <v>36</v>
       </c>
@@ -2168,8 +2445,8 @@
       <c r="D41" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="3" t="s">
         <v>43</v>
       </c>
@@ -2197,8 +2474,8 @@
       <c r="D42" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="3" t="s">
         <v>117</v>
       </c>
@@ -2226,8 +2503,8 @@
       <c r="D43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="3" t="s">
         <v>129</v>
       </c>
@@ -2255,8 +2532,8 @@
       <c r="D44" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="3" t="s">
         <v>124</v>
       </c>
@@ -2284,8 +2561,8 @@
       <c r="D45" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
       <c r="G45" s="3" t="s">
         <v>93</v>
       </c>
@@ -2313,10 +2590,10 @@
       <c r="D46" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F46" s="8"/>
+      <c r="F46" s="10"/>
       <c r="G46" s="3" t="s">
         <v>151</v>
       </c>
@@ -2344,10 +2621,10 @@
       <c r="D47" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F47" s="8"/>
+      <c r="F47" s="10"/>
       <c r="G47" s="3" t="s">
         <v>151</v>
       </c>
@@ -2375,10 +2652,10 @@
       <c r="D48" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F48" s="8"/>
+      <c r="F48" s="10"/>
       <c r="G48" s="3" t="s">
         <v>151</v>
       </c>
@@ -2406,8 +2683,8 @@
       <c r="D49" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
       <c r="G49" s="3" t="s">
         <v>96</v>
       </c>
@@ -2435,10 +2712,10 @@
       <c r="D50" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F50" s="8"/>
+      <c r="F50" s="10"/>
       <c r="G50" s="3" t="s">
         <v>151</v>
       </c>
@@ -2466,10 +2743,10 @@
       <c r="D51" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F51" s="8"/>
+      <c r="F51" s="10"/>
       <c r="G51" s="3" t="s">
         <v>166</v>
       </c>
@@ -2497,8 +2774,8 @@
       <c r="D52" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
       <c r="G52" s="3" t="s">
         <v>169</v>
       </c>
@@ -2526,8 +2803,8 @@
       <c r="D53" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
       <c r="G53" s="3" t="s">
         <v>162</v>
       </c>
@@ -2555,8 +2832,8 @@
       <c r="D54" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
       <c r="G54" s="3" t="s">
         <v>160</v>
       </c>
@@ -2576,8 +2853,8 @@
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="L55" s="3" t="s">
@@ -2593,8 +2870,8 @@
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="L56" s="3" t="s">
@@ -2610,8 +2887,8 @@
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="L57" s="3" t="s">
@@ -2627,8 +2904,8 @@
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="L58" s="3" t="s">
@@ -2712,6 +2989,50 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:A5"/>
@@ -2721,58 +3042,14 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
   </mergeCells>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="notEqual">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576 K3">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2787,103 +3064,244 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82506FE1-B017-4B5D-A74A-A8C038FEF2D3}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="111.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>189</v>
       </c>
-      <c r="C3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>195</v>
-      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>195</v>
-      </c>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>195</v>
-      </c>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>195</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>194</v>
       </c>
-      <c r="C8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>195</v>
-      </c>
       <c r="B10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>200</v>
-      </c>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>201</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657085C4-1509-4EE7-BF85-5FAE77085CAD}">
+  <dimension ref="A1:U14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="16"/>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="J3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T12" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R13" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T14" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{BFA120B5-3371-45B8-85D7-4B1D8EF2B096}">
+      <formula1>$J:$J</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6560E66A-5941-4854-8E8F-0C87288305BB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
+++ b/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
@@ -2,20 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\BeeMS\hardware\MasterBoard_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E02431-BFA1-4281-9FAB-E97B2003C929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D253CF3-C889-46A2-A958-20EA028F214F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{4093912D-66FD-41A9-9A54-7EA13A7B271E}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0 routing" sheetId="1" r:id="rId1"/>
     <sheet name="1.1" sheetId="2" r:id="rId2"/>
-    <sheet name="1.1 power" sheetId="3" r:id="rId3"/>
+    <sheet name="1.1 PSU GLV" sheetId="3" r:id="rId3"/>
     <sheet name="1.1 routing" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -93,8 +94,65 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>yong boone</author>
+  </authors>
+  <commentList>
+    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{B3888878-3CAF-48C5-864A-F0A9E6424EF4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>yong boone:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+internal bias of MCU pin
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="308">
   <si>
     <t>last updated</t>
   </si>
@@ -687,51 +745,9 @@
     <t>dim indicator leds. Changed load resistor from 2.4k to 3.32k</t>
   </si>
   <si>
-    <t>LV batt</t>
-  </si>
-  <si>
-    <t>GLV PSU</t>
-  </si>
-  <si>
-    <t>3.3V</t>
-  </si>
-  <si>
-    <t>5V</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>designator</t>
-  </si>
-  <si>
     <t>sheet name</t>
   </si>
   <si>
-    <t>default sheet name</t>
-  </si>
-  <si>
-    <t>PWM sig bank</t>
-  </si>
-  <si>
-    <t>Analog Fault Failsafe</t>
-  </si>
-  <si>
-    <t>Main Current Hall Sensing</t>
-  </si>
-  <si>
-    <t>load: typical (A)</t>
-  </si>
-  <si>
-    <t>load: max (A)</t>
-  </si>
-  <si>
-    <t>quiescent load: typical (A)</t>
-  </si>
-  <si>
-    <t>quiescent load: max (A)</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -747,14 +763,329 @@
     <t>swapped IL relay 12v  for 24v</t>
   </si>
   <si>
-    <t>U102</t>
+    <t>section</t>
+  </si>
+  <si>
+    <t>expected speed</t>
+  </si>
+  <si>
+    <t>0. root</t>
+  </si>
+  <si>
+    <t>1. GLV PSU</t>
+  </si>
+  <si>
+    <t>2. Eth</t>
+  </si>
+  <si>
+    <t>3. MCHS</t>
+  </si>
+  <si>
+    <t>5. AFF</t>
+  </si>
+  <si>
+    <t>6. PWM sb1</t>
+  </si>
+  <si>
+    <t>buses</t>
+  </si>
+  <si>
+    <t>33.3MHz</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>w5500</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>precise</t>
+  </si>
+  <si>
+    <t>imprecise</t>
+  </si>
+  <si>
+    <t>100MHz</t>
+  </si>
+  <si>
+    <t>32MHz</t>
+  </si>
+  <si>
+    <t>10MHz</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>MCU Bus IO</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>MCU spi bus</t>
+  </si>
+  <si>
+    <t>line bias</t>
+  </si>
+  <si>
+    <t>MCU pins (LQFP48)</t>
+  </si>
+  <si>
+    <t>5V tolerant ODIO</t>
+  </si>
+  <si>
+    <t>HDIO</t>
+  </si>
+  <si>
+    <t>HSIO</t>
+  </si>
+  <si>
+    <t>TODO pin</t>
+  </si>
+  <si>
+    <t>"TODO" place holder</t>
+  </si>
+  <si>
+    <t>missing IO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>percise CS</t>
+  </si>
+  <si>
+    <t>impercise CS</t>
+  </si>
+  <si>
+    <t>MCU non-bus IO</t>
+  </si>
+  <si>
+    <t>CAN bus interface</t>
+  </si>
+  <si>
+    <t>can contrller TX</t>
+  </si>
+  <si>
+    <t>can contrller RX</t>
+  </si>
+  <si>
+    <t>infered</t>
+  </si>
+  <si>
+    <t>programming</t>
+  </si>
+  <si>
+    <t>indicator LEDs</t>
+  </si>
+  <si>
+    <t>BMS fault</t>
+  </si>
+  <si>
+    <t>Scheduler running</t>
+  </si>
+  <si>
+    <t>input sense</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>damageable</t>
+  </si>
+  <si>
+    <t>forwarding control</t>
+  </si>
+  <si>
+    <t>Board thermals</t>
+  </si>
+  <si>
+    <t>temperature 1</t>
+  </si>
+  <si>
+    <t>HRLV sense</t>
+  </si>
+  <si>
+    <t>w5500 internal PU</t>
+  </si>
+  <si>
+    <t>reset _N</t>
+  </si>
+  <si>
+    <t>IRQ _N</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>5V signal</t>
+  </si>
+  <si>
+    <t>shutdown _N</t>
+  </si>
+  <si>
+    <t>ROSC</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>real time clock</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>4. HRLV intf</t>
+  </si>
+  <si>
+    <t>5V ODIO</t>
+  </si>
+  <si>
+    <t>HRLV presence</t>
+  </si>
+  <si>
+    <t>IL presence</t>
+  </si>
+  <si>
+    <t>UART TX</t>
+  </si>
+  <si>
+    <t>UART ui</t>
+  </si>
+  <si>
+    <t>UART TODO</t>
+  </si>
+  <si>
+    <t>3v3</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>MSPM0G3507</t>
+  </si>
+  <si>
+    <t>main GLV PSU loads</t>
+  </si>
+  <si>
+    <t>GLV rails</t>
+  </si>
+  <si>
+    <t>rail</t>
+  </si>
+  <si>
+    <t>quiescent load max (mA)</t>
+  </si>
+  <si>
+    <t>load max (mA)</t>
+  </si>
+  <si>
+    <t>CANFD transceiver</t>
+  </si>
+  <si>
+    <t>main mcu. always on</t>
+  </si>
+  <si>
+    <t>Joined G/HR LV</t>
+  </si>
+  <si>
+    <t>dio</t>
+  </si>
+  <si>
+    <t>vdd</t>
+  </si>
+  <si>
+    <t>Board temperature</t>
+  </si>
+  <si>
+    <t>1 temp sensor</t>
+  </si>
+  <si>
+    <t>15uA each sensor</t>
+  </si>
+  <si>
+    <t>buck</t>
+  </si>
+  <si>
+    <t>indicator led</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>load on rails (mA)</t>
+  </si>
+  <si>
+    <t>rj45 jack</t>
+  </si>
+  <si>
+    <t>led yellow</t>
+  </si>
+  <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>4.096Vref</t>
+  </si>
+  <si>
+    <t>1.8Vref</t>
+  </si>
+  <si>
+    <t>dependent. see ADC analog side</t>
+  </si>
+  <si>
+    <t>ADC for percise</t>
+  </si>
+  <si>
+    <t>ADC for impercise</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>analog</t>
+  </si>
+  <si>
+    <t>PSU shutdown bias</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>galvanic isolator</t>
+  </si>
+  <si>
+    <t>near</t>
+  </si>
+  <si>
+    <t>5v</t>
+  </si>
+  <si>
+    <t>power (W)</t>
+  </si>
+  <si>
+    <t>sheets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,6 +1104,33 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -789,18 +1147,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -928,11 +1286,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -955,51 +1344,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="55">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1016,6 +1484,844 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59987182226020086"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59987182226020086"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -1070,7 +2376,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1083,25 +2389,10 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1185,16 +2476,81 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3CA6A1A-1FD3-48BF-BCF8-90408D82F5F9}" name="Table1" displayName="Table1" ref="A1:G3" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="7">
-  <autoFilter ref="A1:G3" xr:uid="{B3CA6A1A-1FD3-48BF-BCF8-90408D82F5F9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3CA6A1A-1FD3-48BF-BCF8-90408D82F5F9}" name="Table1" displayName="Table1" ref="A8:G37" totalsRowShown="0" headerRowDxfId="54" tableBorderDxfId="53">
+  <autoFilter ref="A8:G37" xr:uid="{B3CA6A1A-1FD3-48BF-BCF8-90408D82F5F9}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F176D1B1-93A9-4FA3-9B13-4D1FB62C21AE}" name="sheet name"/>
-    <tableColumn id="2" xr3:uid="{EE80E7F9-AF23-49F4-943C-5BDA0C2DD776}" name="designator"/>
-    <tableColumn id="3" xr3:uid="{A5946CA3-79A2-4891-BEA3-782B6CE1AAF4}" name="load: typical (A)" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{F1B2DA7A-1733-4CED-911F-2548B461F4B4}" name="load: max (A)" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{FC4198F1-9F4C-462F-A1EC-84FC5B0E5DA5}" name="quiescent load: typical (A)" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{4AE8A94A-AE32-4F27-9526-6334655412FD}" name="quiescent load: max (A)" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{A8F78CD3-05E4-4EB1-9B7D-CED32A844841}" name="section"/>
+    <tableColumn id="2" xr3:uid="{EE80E7F9-AF23-49F4-943C-5BDA0C2DD776}" name="description"/>
+    <tableColumn id="3" xr3:uid="{A5946CA3-79A2-4891-BEA3-782B6CE1AAF4}" name="rail" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{F1B2DA7A-1733-4CED-911F-2548B461F4B4}" name="load max (mA)" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{FC4198F1-9F4C-462F-A1EC-84FC5B0E5DA5}" name="quiescent load max (mA)" dataDxfId="50"/>
     <tableColumn id="7" xr3:uid="{B9D254ED-3403-48E7-86C6-D472AEB43A1C}" name="notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F5F77664-6D8F-483F-912C-5E6D4F8B5F07}" name="Table2" displayName="Table2" ref="A2:H11" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="35" tableBorderDxfId="36" totalsRowBorderDxfId="34">
+  <autoFilter ref="A2:H11" xr:uid="{F5F77664-6D8F-483F-912C-5E6D4F8B5F07}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{5010B2C3-0FE4-4D45-AAEA-15B595D6C58D}" name="sheet name" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{16EBAA9D-A147-47AD-9900-6D0CBBD407E6}" name="section" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{F8464126-4CA5-4154-9AFC-FDF660E49CD5}" name="device" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{D72D5C8E-8121-47FF-81A7-48F75D0CE1DF}" name="max speed" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{07BFB895-C95F-4BE2-8798-3F35D9FC157D}" name="expected speed" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{3D5D7CCE-4D00-4720-B7C6-4838DF346708}" name="format" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{094CFC15-9E9E-4A6F-90B7-217F057F3026}" name="bus" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{E77093F1-2FCA-4DA2-9AED-4459A1A37A95}" name="note" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1578D7EE-6FBB-4DE3-AC48-F0B5A29D5EF2}" name="Table25" displayName="Table25" ref="A17:H36" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="47" tableBorderDxfId="48" totalsRowBorderDxfId="46">
+  <autoFilter ref="A17:H36" xr:uid="{1578D7EE-6FBB-4DE3-AC48-F0B5A29D5EF2}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{A5417E4E-85AA-481E-95EA-6EA68378CE0D}" name="sheet name" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{09206E64-D0B2-46BA-953D-4D6EBD89E499}" name="section" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{0749C1C9-E3C8-4BBD-BBB8-55A70958D90B}" name="purpose" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{E1786154-FE90-4FB3-BB39-4EA801C99FFE}" name="bus" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{D82A1FA2-ED47-43F8-92E3-8481A0FA6027}" name="IO type" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{101C5AB4-2FFB-4B6A-A094-43F31CB7F52B}" name="line bias" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{D5F42C96-9C93-4A2C-9F8C-44EA441E466D}" name="pin" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{DB897746-7C21-4991-BABA-CA2C03586305}" name="function" dataDxfId="38"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{709BFC6C-4310-44F8-9275-A5F8EC732176}" name="Table5" displayName="Table5" ref="M2:O47" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="24" tableBorderDxfId="25" totalsRowBorderDxfId="23">
+  <autoFilter ref="M2:O47" xr:uid="{709BFC6C-4310-44F8-9275-A5F8EC732176}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{CAC62513-D1D3-4EFD-9C4B-637F7CD6500C}" name="Pin" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{5C4AD75F-C896-4D24-99CC-DFB5DAEB186E}" name="Function" dataDxfId="19">
+      <calculatedColumnFormula>IFERROR(INDEX($H$18:$H$1029, MATCH($M3, $G$18:$G$1029, 0)), "none")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{16917B27-6CC3-427B-9880-17F5A85CDE9C}" name="note" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3BDE32EE-112E-4083-BDA6-E45286F8B66C}" name="Table7" displayName="Table7" ref="A50:H70" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+  <autoFilter ref="A50:H70" xr:uid="{3BDE32EE-112E-4083-BDA6-E45286F8B66C}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{E6067D0D-DB54-4DE6-92DE-E4E517FBD9DB}" name="sheet name" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{914D0438-0D80-4890-A4EB-D535A73B591E}" name="section" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{81E49DDC-4883-49CB-B666-A426AF3AFCCC}" name="purpose" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{12A4B7BA-D202-4055-9BC8-BBBA444A22A0}" name="IO type" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{0A2BCD0F-C36D-4FA5-81AC-B36A2B41D5E8}" name="line bias" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{CFCC7241-C9B5-411F-9179-ED12BE4B7515}" name="to note" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{E186A547-E475-4585-9985-65321265F858}" name="pin" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{16AD8D62-8D0F-4AA0-9119-866D0BBA0824}" name="function" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1376,11 +2732,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1418,11 +2776,11 @@
       <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
       <c r="S1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1432,7 +2790,7 @@
         <v>6</v>
       </c>
       <c r="M2" s="3" t="str">
-        <f t="shared" ref="M2:M33" si="0">IFERROR(INDEX($H$15:$H$1000, MATCH($L2, $G$15:$G$1000, 0)), "n/a")</f>
+        <f>IFERROR(INDEX($H$15:$H$1000, MATCH($L2, $G$15:$G$1000, 0)), "n/a")</f>
         <v>n/a</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -1446,16 +2804,16 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1467,7 +2825,7 @@
         <v>12</v>
       </c>
       <c r="M3" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M2:M33" si="0">IFERROR(INDEX($H$15:$H$1000, MATCH($L3, $G$15:$G$1000, 0)), "n/a")</f>
         <v>n/a</v>
       </c>
       <c r="S3" s="1" t="s">
@@ -1475,28 +2833,28 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="15"/>
       <c r="L4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1508,13 +2866,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1532,7 +2890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1566,7 +2924,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1634,7 +2992,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1654,7 +3012,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1694,7 +3052,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1714,7 +3072,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1734,7 +3092,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1754,7 +3112,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L15" s="3" t="s">
         <v>57</v>
       </c>
@@ -1766,7 +3124,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L16" s="3" t="s">
         <v>59</v>
       </c>
@@ -1779,16 +3137,16 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
       <c r="L17" s="3" t="s">
         <v>62</v>
       </c>
@@ -1801,26 +3159,26 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
+      <c r="F18" s="15"/>
+      <c r="G18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="15"/>
       <c r="L18" s="3" t="s">
         <v>68</v>
       </c>
@@ -1832,13 +3190,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="5" t="s">
         <v>70</v>
       </c>
@@ -1888,7 +3246,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -1916,7 +3274,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -1969,7 +3327,7 @@
         <v>UART2 tx</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -1997,7 +3355,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
@@ -2006,8 +3364,8 @@
       <c r="D25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="3" t="s">
         <v>68</v>
       </c>
@@ -2034,8 +3392,8 @@
       <c r="D26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="3" t="s">
         <v>77</v>
       </c>
@@ -2053,7 +3411,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -2066,8 +3424,8 @@
       <c r="D27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="3" t="s">
         <v>100</v>
       </c>
@@ -2098,8 +3456,8 @@
       <c r="D28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="3" t="s">
         <v>103</v>
       </c>
@@ -2127,8 +3485,8 @@
       <c r="D29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="3" t="s">
         <v>88</v>
       </c>
@@ -2156,8 +3514,8 @@
       <c r="D30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="3" t="s">
         <v>90</v>
       </c>
@@ -2182,16 +3540,16 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
       <c r="L32" s="3" t="s">
         <v>114</v>
       </c>
@@ -2201,26 +3559,26 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9" t="s">
+      <c r="F33" s="15"/>
+      <c r="G33" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="9"/>
+      <c r="H33" s="15"/>
       <c r="L33" s="3" t="s">
         <v>116</v>
       </c>
@@ -2230,12 +3588,12 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
       <c r="G34" s="5" t="s">
         <v>70</v>
       </c>
@@ -2263,10 +3621,10 @@
       <c r="D35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F35" s="10"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="3" t="s">
         <v>104</v>
       </c>
@@ -2294,10 +3652,10 @@
       <c r="D36" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="10"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="3" t="s">
         <v>109</v>
       </c>
@@ -2325,10 +3683,10 @@
       <c r="D37" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F37" s="10"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="3" t="s">
         <v>81</v>
       </c>
@@ -2356,10 +3714,10 @@
       <c r="D38" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="3" t="s">
         <v>85</v>
       </c>
@@ -2387,8 +3745,8 @@
       <c r="D39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="3" t="s">
         <v>122</v>
       </c>
@@ -2416,8 +3774,8 @@
       <c r="D40" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="3" t="s">
         <v>36</v>
       </c>
@@ -2445,8 +3803,8 @@
       <c r="D41" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="3" t="s">
         <v>43</v>
       </c>
@@ -2474,8 +3832,8 @@
       <c r="D42" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="3" t="s">
         <v>117</v>
       </c>
@@ -2503,8 +3861,8 @@
       <c r="D43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
       <c r="G43" s="3" t="s">
         <v>129</v>
       </c>
@@ -2532,8 +3890,8 @@
       <c r="D44" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="3" t="s">
         <v>124</v>
       </c>
@@ -2561,8 +3919,8 @@
       <c r="D45" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
       <c r="G45" s="3" t="s">
         <v>93</v>
       </c>
@@ -2590,10 +3948,10 @@
       <c r="D46" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F46" s="10"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="3" t="s">
         <v>151</v>
       </c>
@@ -2621,10 +3979,10 @@
       <c r="D47" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F47" s="10"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="3" t="s">
         <v>151</v>
       </c>
@@ -2652,10 +4010,10 @@
       <c r="D48" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F48" s="10"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="3" t="s">
         <v>151</v>
       </c>
@@ -2683,8 +4041,8 @@
       <c r="D49" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
       <c r="G49" s="3" t="s">
         <v>96</v>
       </c>
@@ -2712,10 +4070,10 @@
       <c r="D50" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F50" s="10"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="3" t="s">
         <v>151</v>
       </c>
@@ -2743,10 +4101,10 @@
       <c r="D51" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="F51" s="10"/>
+      <c r="F51" s="14"/>
       <c r="G51" s="3" t="s">
         <v>166</v>
       </c>
@@ -2774,8 +4132,8 @@
       <c r="D52" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
       <c r="G52" s="3" t="s">
         <v>169</v>
       </c>
@@ -2803,8 +4161,8 @@
       <c r="D53" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
       <c r="G53" s="3" t="s">
         <v>162</v>
       </c>
@@ -2832,8 +4190,8 @@
       <c r="D54" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
       <c r="G54" s="3" t="s">
         <v>160</v>
       </c>
@@ -2853,8 +4211,8 @@
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="L55" s="3" t="s">
@@ -2870,8 +4228,8 @@
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="L56" s="3" t="s">
@@ -2887,8 +4245,8 @@
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="L57" s="3" t="s">
@@ -2904,8 +4262,8 @@
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="L58" s="3" t="s">
@@ -2989,6 +4347,50 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
     <mergeCell ref="E55:F55"/>
     <mergeCell ref="E56:F56"/>
     <mergeCell ref="E57:F57"/>
@@ -2998,58 +4400,14 @@
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="notEqual">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576 K3">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3064,88 +4422,171 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82506FE1-B017-4B5D-A74A-A8C038FEF2D3}">
-  <dimension ref="A1:B17"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="111.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E1" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E5" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>194</v>
       </c>
       <c r="B6" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E6" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E7" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E8" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>194</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>215</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3154,154 +4595,2888 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657085C4-1509-4EE7-BF85-5FAE77085CAD}">
-  <dimension ref="A1:U14"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A7:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="C8" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E9" s="8">
+        <v>100</v>
+      </c>
+      <c r="F9" s="8">
+        <v>100</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="L9" s="8" t="str" cm="1">
+        <f t="array" ref="L9:O9">TRANSPOSE(I9:I12)</f>
+        <v>3v3</v>
+      </c>
+      <c r="M9" s="8" t="str">
+        <v>5v</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="L10" s="54">
+        <f>L11 * 3.3 / 1000</f>
+        <v>0.87322949999999999</v>
+      </c>
+      <c r="M10" s="54">
+        <f>M11 * 5 / 1000</f>
+        <v>1.6151312217194571</v>
+      </c>
+      <c r="N10" s="54">
+        <f t="shared" ref="N10:O10" si="0">SUM(N12:N39)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E11" s="8">
+        <v>140</v>
+      </c>
+      <c r="F11" s="8">
+        <v>70</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="K11" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="L11" s="52">
+        <f>SUM(L13:L40)</f>
+        <v>264.61500000000001</v>
+      </c>
+      <c r="M11" s="52">
+        <f>SUM(M13:M40)</f>
+        <v>323.02624434389139</v>
+      </c>
+      <c r="N11" s="52">
+        <f t="shared" ref="N11:O11" si="1">SUM(N13:N40)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E13" s="8">
+        <v>140</v>
+      </c>
+      <c r="F13" s="8">
+        <v>70</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="K13" s="8" t="str" cm="1">
+        <f t="array" ref="K13:K41">'1.1'!E2:E30</f>
+        <v>0. root</v>
+      </c>
+      <c r="L13" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K13, $D$9:$D$1015, L$9)</f>
+        <v>100.81500000000001</v>
+      </c>
+      <c r="M13" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K13, $D$9:$D$1015, M$9)</f>
+        <v>280</v>
+      </c>
+      <c r="N13" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K13, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K13, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="K14" s="8" t="str">
+        <v>1. GLV PSU</v>
+      </c>
+      <c r="L14" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K14, $D$9:$D$1015, L$9)</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K14, $D$9:$D$1015, M$9)</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K14, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K14, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="K15" s="8" t="str">
+        <v>2. Eth</v>
+      </c>
+      <c r="L15" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K15, $D$9:$D$1015, L$9)</f>
+        <v>142</v>
+      </c>
+      <c r="M15" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K15, $D$9:$D$1015, M$9)</f>
+        <v>10</v>
+      </c>
+      <c r="N15" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K15, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K15, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="K16" s="8" t="str">
+        <v>3. MCHS</v>
+      </c>
+      <c r="L16" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K16, $D$9:$D$1015, L$9)</f>
+        <v>0.8</v>
+      </c>
+      <c r="M16" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K16, $D$9:$D$1015, M$9)</f>
+        <v>32.026244343891399</v>
+      </c>
+      <c r="N16" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K16, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K16, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" s="8">
+        <v>10</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="K17" s="8" t="str">
+        <v>4. HRLV intf</v>
+      </c>
+      <c r="L17" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K17, $D$9:$D$1015, L$9)</f>
+        <v>20</v>
+      </c>
+      <c r="M17" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K17, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K17, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K17, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E18" s="8">
+        <v>10</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="K18" s="8" t="str">
+        <v>5. AFF</v>
+      </c>
+      <c r="L18" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K18, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K18, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K18, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K18, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E19" s="8">
+        <v>132</v>
+      </c>
+      <c r="F19" s="8">
+        <v>15</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="K19" s="8" t="str">
+        <v>6. PWM sb1</v>
+      </c>
+      <c r="L19" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K19, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K19, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K19, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K19, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="J1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="D2" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="16"/>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="J3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T12" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="R13" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T14" s="11" t="s">
-        <v>200</v>
+      <c r="B20" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K20, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K20, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K20, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K20, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E21" s="8">
+        <v>30</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2.05E-4</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K21, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K21, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K21, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K21, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K22, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K22, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K22, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K22, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K23, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K23, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K23, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K23, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1.2E-4</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K24, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K24, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K24, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K24, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1.2E-4</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+      <c r="L25" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K25, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K25, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K25, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K25, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E26" s="8">
+        <f>5000/22100</f>
+        <v>0.22624434389140272</v>
+      </c>
+      <c r="F26" s="8">
+        <f>Table1[[#This Row],[load max (mA)]]</f>
+        <v>0.22624434389140272</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="K26" s="8">
+        <v>0</v>
+      </c>
+      <c r="L26" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K26, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K26, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K26, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K26, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27" s="8">
+        <v>20</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+      <c r="L27" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K27, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K27, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K27, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K27, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="22"/>
+      <c r="K28" s="8">
+        <v>0</v>
+      </c>
+      <c r="L28" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K28, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K28, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K28, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K28, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="22"/>
+      <c r="K29" s="8">
+        <v>0</v>
+      </c>
+      <c r="L29" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K29, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K29, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K29, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K29, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="22"/>
+      <c r="K30" s="8">
+        <v>0</v>
+      </c>
+      <c r="L30" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K30, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K30, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K30, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K30, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="22"/>
+      <c r="K31" s="8">
+        <v>0</v>
+      </c>
+      <c r="L31" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K31, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K31, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K31, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K31, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="22"/>
+      <c r="K32" s="8">
+        <v>0</v>
+      </c>
+      <c r="L32" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K32, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K32, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K32, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K32, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="22"/>
+      <c r="K33" s="8">
+        <v>0</v>
+      </c>
+      <c r="L33" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K33, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K33, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K33, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K33, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="22"/>
+      <c r="K34" s="8">
+        <v>0</v>
+      </c>
+      <c r="L34" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K34, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K34, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K34, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K34, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="22"/>
+      <c r="K35" s="8">
+        <v>0</v>
+      </c>
+      <c r="L35" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K35, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K35, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K35, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K35, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="22"/>
+      <c r="K36" s="8">
+        <v>0</v>
+      </c>
+      <c r="L36" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K36, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K36, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K36, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K36, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="22"/>
+      <c r="K37" s="8">
+        <v>0</v>
+      </c>
+      <c r="L37" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K37, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K37, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K37, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K37, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K38" s="8">
+        <v>0</v>
+      </c>
+      <c r="L38" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K38, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K38, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K38, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K38, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K39" s="8">
+        <v>0</v>
+      </c>
+      <c r="L39" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K39, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K39, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K39, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K39, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K40" s="8">
+        <v>0</v>
+      </c>
+      <c r="L40" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K40, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K40, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K40, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K40, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K41" s="8">
+        <v>0</v>
+      </c>
+      <c r="L41" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K41, $D$9:$D$1015, L$9)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K41, $D$9:$D$1015, M$9)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K41, $D$9:$D$1015, N$9)</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="50">
+        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K41, $D$9:$D$1015, O$9)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{BFA120B5-3371-45B8-85D7-4B1D8EF2B096}">
+  <mergeCells count="7">
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A38:B1048576 A8" xr:uid="{BFA120B5-3371-45B8-85D7-4B1D8EF2B096}">
       <formula1>$J:$J</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D37" xr:uid="{938AF699-FAA5-4BD8-89A3-A28B12BEF829}">
+      <formula1>$I$9:$I$12</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{46458AD1-CB65-4463-85DE-D4634846DDE1}">
+          <x14:formula1>
+            <xm:f>'1.1'!$E$2:$E$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>A9:A37</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6560E66A-5941-4854-8E8F-0C87288305BB}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6560E66A-5941-4854-8E8F-0C87288305BB}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" customWidth="1"/>
+    <col min="15" max="15" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="M1" s="29"/>
+      <c r="N1" s="30"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K2" s="33"/>
+      <c r="L2" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="J3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="36"/>
+      <c r="L3" s="14" t="str">
+        <f>IFERROR(INDEX($B$18:$B$1029, MATCH(M47, $G$18:$G$1029, 0)), "n/a")</f>
+        <v>Ethernet</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M3, $G$18:$G$1029, 0)), "free")</f>
+        <v>5V ODIO</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="J4" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M4, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="J5" s="34"/>
+      <c r="L5" s="14" t="str">
+        <f>IFERROR(INDEX($C$18:$C$1029, MATCH(M47, $G$18:$G$1029, 0)), "n/a")</f>
+        <v>controller CS</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M5, $G$18:$G$1029, 0)), "free")</f>
+        <v>custom</v>
+      </c>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="17"/>
+      <c r="J6" s="34"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M6, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="17"/>
+      <c r="J7" s="35"/>
+      <c r="L7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M7, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="17"/>
+      <c r="J8" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M8, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="17"/>
+      <c r="J9" s="34"/>
+      <c r="M9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M9, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="17"/>
+      <c r="J10" s="34"/>
+      <c r="M10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M10, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="17"/>
+      <c r="J11" s="35"/>
+      <c r="M11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M11, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M12, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M13, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M14, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M15, $G$18:$G$1029, 0)), "free")</f>
+        <v>spi0 SCLK</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="M16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M16, $G$18:$G$1029, 0)), "free")</f>
+        <v>spi0 MISO/POCI</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M17, $G$18:$G$1029, 0)), "free")</f>
+        <v>spi0 MOSI/PICO</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M18, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N19" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M19, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M20, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M21, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N22" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M22, $G$18:$G$1029, 0)), "free")</f>
+        <v>SWDIO</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M23, $G$18:$G$1029, 0)), "free")</f>
+        <v>SWCLK</v>
+      </c>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N24" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M24, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N25" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M25, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="N26" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M26, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="N27" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M27, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N28" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M28, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="17"/>
+      <c r="M29" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N29" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M29, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O29" s="8"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="17"/>
+      <c r="M30" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="N30" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M30, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="17"/>
+      <c r="M31" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N31" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M31, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="17"/>
+      <c r="M32" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="N32" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M32, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="17"/>
+      <c r="M33" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="N33" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M33, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="17"/>
+      <c r="M34" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N34" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M34, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O34" s="8"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="17"/>
+      <c r="M35" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="N35" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M35, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O35" s="8"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="17"/>
+      <c r="M36" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N36" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M36, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O36" s="8"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M37" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="N37" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M37, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O37" s="8"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M38" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="N38" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M38, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O38" s="8"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M39" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N39" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M39, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O39" s="8"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M40" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="N40" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M40, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O40" s="8"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M41" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="N41" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M41, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O41" s="8"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M42" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="N42" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M42, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O42" s="8"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M43" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="N43" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M43, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O43" s="8"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M44" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="N44" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M44, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O44" s="8"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M45" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="N45" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M45, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O45" s="8"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M46" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N46" s="17" t="str">
+        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M46, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
+      </c>
+      <c r="O46" s="8"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M47" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="N47" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="G50" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="H50" s="40" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" s="44"/>
+      <c r="G51" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="H51" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" s="32"/>
+      <c r="G52" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="F53" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="G53" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="H53" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="E55" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="F55" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="G55" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="46" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" s="32"/>
+      <c r="G56" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" s="44"/>
+      <c r="G57" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="H57" s="46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" s="32"/>
+      <c r="G58" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="D59" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="F59" s="44"/>
+      <c r="G59" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="H59" s="46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F60" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="D61" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="F61" s="44"/>
+      <c r="G61" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="H61" s="46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F62" s="32"/>
+      <c r="G62" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="F63" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H63" s="46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F64" s="32"/>
+      <c r="G64" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B65" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="E65" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="F65" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="G65" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="46" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F66" s="32"/>
+      <c r="G66" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B67" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="C67" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="F67" s="44"/>
+      <c r="G67" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="H67" s="46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="24"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="17"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="41"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="46"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="24"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="notEqual">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="notEqual">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"n/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G11" xr:uid="{5CDE35F2-F8FD-4958-B08D-795B00C9640C}">
+      <formula1>$J$3:$J$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G51:G70 G18:G36" xr:uid="{FD36B83F-1D1A-42D5-9E6E-A39E1A019BCB}">
+      <formula1>$M$3:$M$47</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D36" xr:uid="{B9448B54-17F4-46CD-B0B1-4C49C361E2E1}">
+      <formula1>$J$3:$J$11</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{68BDE097-8D78-485C-BE14-71F1B18155F1}">
+            <xm:f>NOT(ISERROR(SEARCH($N$47,N3)))</xm:f>
+            <xm:f>$N$47</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N3:N46</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{50292A32-61E4-417C-AAAE-90F252071CB7}">
+          <x14:formula1>
+            <xm:f>'1.1'!$E$2:$E$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A11 A51:A70 A18:A36</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
+++ b/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\BeeMS\hardware\MasterBoard_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D253CF3-C889-46A2-A958-20EA028F214F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92A03B7-CC71-4979-8101-DC91203710C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{4093912D-66FD-41A9-9A54-7EA13A7B271E}"/>

--- a/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
+++ b/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\BeeMS\hardware\MasterBoard_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92A03B7-CC71-4979-8101-DC91203710C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E681688-8E19-466A-8069-6E4D4079A87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{4093912D-66FD-41A9-9A54-7EA13A7B271E}"/>
+    <workbookView xWindow="11895" yWindow="0" windowWidth="12210" windowHeight="12885" activeTab="3" xr2:uid="{4093912D-66FD-41A9-9A54-7EA13A7B271E}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0 routing" sheetId="1" r:id="rId1"/>
@@ -152,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="315">
   <si>
     <t>last updated</t>
   </si>
@@ -928,9 +927,6 @@
     <t>OD</t>
   </si>
   <si>
-    <t>5V signal</t>
-  </si>
-  <si>
     <t>shutdown _N</t>
   </si>
   <si>
@@ -964,9 +960,6 @@
     <t>UART ui</t>
   </si>
   <si>
-    <t>UART TODO</t>
-  </si>
-  <si>
     <t>3v3</t>
   </si>
   <si>
@@ -1076,6 +1069,33 @@
   </si>
   <si>
     <t>sheets</t>
+  </si>
+  <si>
+    <t>UART RX</t>
+  </si>
+  <si>
+    <t>UART2 TX</t>
+  </si>
+  <si>
+    <t>UART2 RX</t>
+  </si>
+  <si>
+    <t>duplicate pins!</t>
+  </si>
+  <si>
+    <t>IGNORE</t>
+  </si>
+  <si>
+    <t>ignore this pin</t>
+  </si>
+  <si>
+    <t>removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20hpgpioD </t>
+  </si>
+  <si>
+    <t>24hegpioDr</t>
   </si>
 </sst>
 </file>
@@ -1083,9 +1103,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1130,6 +1150,11 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1321,7 +1346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1356,24 +1381,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1392,6 +1402,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1401,62 +1467,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1513,42 +1533,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1871,13 +1855,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -1893,18 +1870,46 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1930,15 +1935,18 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
         <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1964,6 +1972,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -1971,18 +1988,21 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2119,6 +2139,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -2126,15 +2155,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -2287,6 +2307,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -2294,15 +2323,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -2492,65 +2512,65 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F5F77664-6D8F-483F-912C-5E6D4F8B5F07}" name="Table2" displayName="Table2" ref="A2:H11" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="35" tableBorderDxfId="36" totalsRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F5F77664-6D8F-483F-912C-5E6D4F8B5F07}" name="Table2" displayName="Table2" ref="A2:H11" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48" tableBorderDxfId="47" totalsRowBorderDxfId="46">
   <autoFilter ref="A2:H11" xr:uid="{F5F77664-6D8F-483F-912C-5E6D4F8B5F07}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5010B2C3-0FE4-4D45-AAEA-15B595D6C58D}" name="sheet name" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{16EBAA9D-A147-47AD-9900-6D0CBBD407E6}" name="section" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{F8464126-4CA5-4154-9AFC-FDF660E49CD5}" name="device" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{D72D5C8E-8121-47FF-81A7-48F75D0CE1DF}" name="max speed" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{07BFB895-C95F-4BE2-8798-3F35D9FC157D}" name="expected speed" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{3D5D7CCE-4D00-4720-B7C6-4838DF346708}" name="format" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{094CFC15-9E9E-4A6F-90B7-217F057F3026}" name="bus" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{E77093F1-2FCA-4DA2-9AED-4459A1A37A95}" name="note" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{5010B2C3-0FE4-4D45-AAEA-15B595D6C58D}" name="sheet name" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{16EBAA9D-A147-47AD-9900-6D0CBBD407E6}" name="section" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{F8464126-4CA5-4154-9AFC-FDF660E49CD5}" name="device" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{D72D5C8E-8121-47FF-81A7-48F75D0CE1DF}" name="max speed" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{07BFB895-C95F-4BE2-8798-3F35D9FC157D}" name="expected speed" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{3D5D7CCE-4D00-4720-B7C6-4838DF346708}" name="format" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{094CFC15-9E9E-4A6F-90B7-217F057F3026}" name="bus" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{E77093F1-2FCA-4DA2-9AED-4459A1A37A95}" name="note" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1578D7EE-6FBB-4DE3-AC48-F0B5A29D5EF2}" name="Table25" displayName="Table25" ref="A17:H36" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="47" tableBorderDxfId="48" totalsRowBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1578D7EE-6FBB-4DE3-AC48-F0B5A29D5EF2}" name="Table25" displayName="Table25" ref="A17:H36" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <autoFilter ref="A17:H36" xr:uid="{1578D7EE-6FBB-4DE3-AC48-F0B5A29D5EF2}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A5417E4E-85AA-481E-95EA-6EA68378CE0D}" name="sheet name" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{09206E64-D0B2-46BA-953D-4D6EBD89E499}" name="section" dataDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{0749C1C9-E3C8-4BBD-BBB8-55A70958D90B}" name="purpose" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{E1786154-FE90-4FB3-BB39-4EA801C99FFE}" name="bus" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{D82A1FA2-ED47-43F8-92E3-8481A0FA6027}" name="IO type" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{101C5AB4-2FFB-4B6A-A094-43F31CB7F52B}" name="line bias" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{D5F42C96-9C93-4A2C-9F8C-44EA441E466D}" name="pin" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{DB897746-7C21-4991-BABA-CA2C03586305}" name="function" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{A5417E4E-85AA-481E-95EA-6EA68378CE0D}" name="sheet name" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{09206E64-D0B2-46BA-953D-4D6EBD89E499}" name="section" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{0749C1C9-E3C8-4BBD-BBB8-55A70958D90B}" name="purpose" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{E1786154-FE90-4FB3-BB39-4EA801C99FFE}" name="bus" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{D82A1FA2-ED47-43F8-92E3-8481A0FA6027}" name="IO type" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{101C5AB4-2FFB-4B6A-A094-43F31CB7F52B}" name="line bias" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{D5F42C96-9C93-4A2C-9F8C-44EA441E466D}" name="pin" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{DB897746-7C21-4991-BABA-CA2C03586305}" name="function" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{709BFC6C-4310-44F8-9275-A5F8EC732176}" name="Table5" displayName="Table5" ref="M2:O47" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="24" tableBorderDxfId="25" totalsRowBorderDxfId="23">
-  <autoFilter ref="M2:O47" xr:uid="{709BFC6C-4310-44F8-9275-A5F8EC732176}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{709BFC6C-4310-44F8-9275-A5F8EC732176}" name="Table5" displayName="Table5" ref="M2:O48" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <autoFilter ref="M2:O48" xr:uid="{709BFC6C-4310-44F8-9275-A5F8EC732176}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CAC62513-D1D3-4EFD-9C4B-637F7CD6500C}" name="Pin" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{5C4AD75F-C896-4D24-99CC-DFB5DAEB186E}" name="Function" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{CAC62513-D1D3-4EFD-9C4B-637F7CD6500C}" name="Pin" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{5C4AD75F-C896-4D24-99CC-DFB5DAEB186E}" name="Function" dataDxfId="20">
       <calculatedColumnFormula>IFERROR(INDEX($H$18:$H$1029, MATCH($M3, $G$18:$G$1029, 0)), "none")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{16917B27-6CC3-427B-9880-17F5A85CDE9C}" name="note" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{16917B27-6CC3-427B-9880-17F5A85CDE9C}" name="note" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3BDE32EE-112E-4083-BDA6-E45286F8B66C}" name="Table7" displayName="Table7" ref="A50:H70" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3BDE32EE-112E-4083-BDA6-E45286F8B66C}" name="Table7" displayName="Table7" ref="A50:H70" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A50:H70" xr:uid="{3BDE32EE-112E-4083-BDA6-E45286F8B66C}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{E6067D0D-DB54-4DE6-92DE-E4E517FBD9DB}" name="sheet name" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{914D0438-0D80-4890-A4EB-D535A73B591E}" name="section" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{81E49DDC-4883-49CB-B666-A426AF3AFCCC}" name="purpose" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{12A4B7BA-D202-4055-9BC8-BBBA444A22A0}" name="IO type" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{0A2BCD0F-C36D-4FA5-81AC-B36A2B41D5E8}" name="line bias" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{CFCC7241-C9B5-411F-9179-ED12BE4B7515}" name="to note" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{E186A547-E475-4585-9985-65321265F858}" name="pin" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{16AD8D62-8D0F-4AA0-9119-866D0BBA0824}" name="function" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{E6067D0D-DB54-4DE6-92DE-E4E517FBD9DB}" name="sheet name" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{914D0438-0D80-4890-A4EB-D535A73B591E}" name="section" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{81E49DDC-4883-49CB-B666-A426AF3AFCCC}" name="purpose" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{12A4B7BA-D202-4055-9BC8-BBBA444A22A0}" name="IO type" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{0A2BCD0F-C36D-4FA5-81AC-B36A2B41D5E8}" name="line bias" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{CFCC7241-C9B5-411F-9179-ED12BE4B7515}" name="to note" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{E186A547-E475-4585-9985-65321265F858}" name="pin" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{16AD8D62-8D0F-4AA0-9119-866D0BBA0824}" name="function" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2735,30 +2755,29 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:F35"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
-    <col min="9" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="20.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
-    <col min="16" max="18" width="9.140625" style="1"/>
+    <col min="8" max="8" width="15.75" style="1" customWidth="1"/>
+    <col min="9" max="12" width="9.125" style="1"/>
+    <col min="13" max="13" width="20.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.125" style="1"/>
+    <col min="15" max="15" width="13.75" style="1" customWidth="1"/>
+    <col min="16" max="18" width="9.125" style="1"/>
     <col min="19" max="19" width="123" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2776,16 +2795,16 @@
       <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
       <c r="S1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="42.75">
       <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2803,17 +2822,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2825,36 +2844,36 @@
         <v>12</v>
       </c>
       <c r="M3" s="3" t="str">
-        <f t="shared" ref="M2:M33" si="0">IFERROR(INDEX($H$15:$H$1000, MATCH($L3, $G$15:$G$1000, 0)), "n/a")</f>
+        <f t="shared" ref="M3:M33" si="0">IFERROR(INDEX($H$15:$H$1000, MATCH($L3, $G$15:$G$1000, 0)), "n/a")</f>
         <v>n/a</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:19" ht="23.85" customHeight="1">
+      <c r="A4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="40"/>
       <c r="L4" s="3" t="s">
         <v>20</v>
       </c>
@@ -2866,13 +2885,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+    <row r="5" spans="1:19" ht="14.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
@@ -2890,7 +2909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="42.75">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -2924,7 +2943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="42.75">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -2958,7 +2977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="28.5">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -2992,7 +3011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="14.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3012,7 +3031,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="14.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3032,7 +3051,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="14.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3052,7 +3071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="28.5">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3072,7 +3091,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="14.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3092,7 +3111,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="14.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3112,7 +3131,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="14.25">
       <c r="L15" s="3" t="s">
         <v>57</v>
       </c>
@@ -3124,7 +3143,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="14.25">
       <c r="L16" s="3" t="s">
         <v>59</v>
       </c>
@@ -3136,17 +3155,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:19" ht="23.85" customHeight="1">
+      <c r="A17" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
       <c r="L17" s="3" t="s">
         <v>62</v>
       </c>
@@ -3158,27 +3177,27 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A18" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15" t="s">
+      <c r="F18" s="40"/>
+      <c r="G18" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="40"/>
       <c r="L18" s="3" t="s">
         <v>68</v>
       </c>
@@ -3190,13 +3209,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+    <row r="19" spans="1:19" ht="14.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
       <c r="G19" s="5" t="s">
         <v>70</v>
       </c>
@@ -3214,7 +3233,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
@@ -3246,7 +3265,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="14.25">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -3274,7 +3293,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="28.5">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -3302,7 +3321,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="14.25">
       <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
@@ -3327,7 +3346,7 @@
         <v>UART2 tx</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="42.75">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -3355,7 +3374,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="14.25">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
@@ -3364,8 +3383,8 @@
       <c r="D25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="3" t="s">
         <v>68</v>
       </c>
@@ -3383,7 +3402,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="14.25">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -3392,8 +3411,8 @@
       <c r="D26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="3" t="s">
         <v>77</v>
       </c>
@@ -3411,7 +3430,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="28.5">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -3424,8 +3443,8 @@
       <c r="D27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
       <c r="G27" s="3" t="s">
         <v>100</v>
       </c>
@@ -3443,7 +3462,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="14.25">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -3456,8 +3475,8 @@
       <c r="D28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
       <c r="G28" s="3" t="s">
         <v>103</v>
       </c>
@@ -3472,7 +3491,7 @@
         <v>MCAN0 TX</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="14.25">
       <c r="A29" s="3" t="s">
         <v>105</v>
       </c>
@@ -3485,8 +3504,8 @@
       <c r="D29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
       <c r="G29" s="3" t="s">
         <v>88</v>
       </c>
@@ -3501,7 +3520,7 @@
         <v>MCAN0 RX</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="14.25">
       <c r="A30" s="3" t="s">
         <v>105</v>
       </c>
@@ -3514,8 +3533,8 @@
       <c r="D30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="3" t="s">
         <v>90</v>
       </c>
@@ -3530,7 +3549,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="14.25">
       <c r="L31" s="3" t="s">
         <v>112</v>
       </c>
@@ -3539,17 +3558,17 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:19" ht="15" customHeight="1">
+      <c r="A32" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
       <c r="L32" s="3" t="s">
         <v>114</v>
       </c>
@@ -3558,27 +3577,27 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+    <row r="33" spans="1:13" ht="15" customHeight="1">
+      <c r="A33" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15" t="s">
+      <c r="F33" s="40"/>
+      <c r="G33" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="15"/>
+      <c r="H33" s="40"/>
       <c r="L33" s="3" t="s">
         <v>116</v>
       </c>
@@ -3587,13 +3606,13 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+    <row r="34" spans="1:13" ht="14.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="5" t="s">
         <v>70</v>
       </c>
@@ -3608,7 +3627,7 @@
         <v>gpio</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>26</v>
       </c>
@@ -3621,10 +3640,10 @@
       <c r="D35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F35" s="14"/>
+      <c r="F35" s="41"/>
       <c r="G35" s="3" t="s">
         <v>104</v>
       </c>
@@ -3639,7 +3658,7 @@
         <v>gpio</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
@@ -3652,10 +3671,10 @@
       <c r="D36" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="14"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="3" t="s">
         <v>109</v>
       </c>
@@ -3670,7 +3689,7 @@
         <v>gpio</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -3683,10 +3702,10 @@
       <c r="D37" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="F37" s="14"/>
+      <c r="F37" s="41"/>
       <c r="G37" s="3" t="s">
         <v>81</v>
       </c>
@@ -3701,7 +3720,7 @@
         <v>gpio</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>26</v>
       </c>
@@ -3714,10 +3733,10 @@
       <c r="D38" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="F38" s="14"/>
+      <c r="F38" s="41"/>
       <c r="G38" s="3" t="s">
         <v>85</v>
       </c>
@@ -3732,7 +3751,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="14.25">
       <c r="A39" s="3" t="s">
         <v>26</v>
       </c>
@@ -3745,8 +3764,8 @@
       <c r="D39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
       <c r="G39" s="3" t="s">
         <v>122</v>
       </c>
@@ -3761,7 +3780,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="14.25">
       <c r="A40" s="3" t="s">
         <v>26</v>
       </c>
@@ -3774,8 +3793,8 @@
       <c r="D40" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
       <c r="G40" s="3" t="s">
         <v>36</v>
       </c>
@@ -3790,7 +3809,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="14.25">
       <c r="A41" s="3" t="s">
         <v>26</v>
       </c>
@@ -3803,8 +3822,8 @@
       <c r="D41" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
       <c r="G41" s="3" t="s">
         <v>43</v>
       </c>
@@ -3819,7 +3838,7 @@
         <v>gpio</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="28.5">
       <c r="A42" s="3" t="s">
         <v>26</v>
       </c>
@@ -3832,8 +3851,8 @@
       <c r="D42" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
       <c r="G42" s="3" t="s">
         <v>117</v>
       </c>
@@ -3848,7 +3867,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="28.5">
       <c r="A43" s="3" t="s">
         <v>26</v>
       </c>
@@ -3861,8 +3880,8 @@
       <c r="D43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
       <c r="G43" s="3" t="s">
         <v>129</v>
       </c>
@@ -3877,7 +3896,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="28.5">
       <c r="A44" s="3" t="s">
         <v>26</v>
       </c>
@@ -3890,8 +3909,8 @@
       <c r="D44" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
       <c r="G44" s="3" t="s">
         <v>124</v>
       </c>
@@ -3906,7 +3925,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="28.5">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
@@ -3919,8 +3938,8 @@
       <c r="D45" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
       <c r="G45" s="3" t="s">
         <v>93</v>
       </c>
@@ -3935,7 +3954,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>26</v>
       </c>
@@ -3948,10 +3967,10 @@
       <c r="D46" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="F46" s="14"/>
+      <c r="F46" s="41"/>
       <c r="G46" s="3" t="s">
         <v>151</v>
       </c>
@@ -3966,7 +3985,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>26</v>
       </c>
@@ -3979,10 +3998,10 @@
       <c r="D47" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="F47" s="14"/>
+      <c r="F47" s="41"/>
       <c r="G47" s="3" t="s">
         <v>151</v>
       </c>
@@ -3997,7 +4016,7 @@
         <v>gpio</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>26</v>
       </c>
@@ -4010,10 +4029,10 @@
       <c r="D48" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="F48" s="14"/>
+      <c r="F48" s="41"/>
       <c r="G48" s="3" t="s">
         <v>151</v>
       </c>
@@ -4028,7 +4047,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="28.5">
       <c r="A49" s="3" t="s">
         <v>26</v>
       </c>
@@ -4041,8 +4060,8 @@
       <c r="D49" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
       <c r="G49" s="3" t="s">
         <v>96</v>
       </c>
@@ -4057,7 +4076,7 @@
         <v>uart TX</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>26</v>
       </c>
@@ -4070,10 +4089,10 @@
       <c r="D50" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="F50" s="14"/>
+      <c r="F50" s="41"/>
       <c r="G50" s="3" t="s">
         <v>151</v>
       </c>
@@ -4088,7 +4107,7 @@
         <v>gpio</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="33.75" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>26</v>
       </c>
@@ -4101,10 +4120,10 @@
       <c r="D51" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="F51" s="14"/>
+      <c r="F51" s="41"/>
       <c r="G51" s="3" t="s">
         <v>166</v>
       </c>
@@ -4119,7 +4138,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="42.75">
       <c r="A52" s="3" t="s">
         <v>26</v>
       </c>
@@ -4132,8 +4151,8 @@
       <c r="D52" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
       <c r="G52" s="3" t="s">
         <v>169</v>
       </c>
@@ -4148,7 +4167,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="14.25">
       <c r="A53" s="3" t="s">
         <v>26</v>
       </c>
@@ -4161,8 +4180,8 @@
       <c r="D53" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
       <c r="G53" s="3" t="s">
         <v>162</v>
       </c>
@@ -4177,7 +4196,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="14.25">
       <c r="A54" s="3" t="s">
         <v>26</v>
       </c>
@@ -4190,8 +4209,8 @@
       <c r="D54" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
       <c r="G54" s="3" t="s">
         <v>160</v>
       </c>
@@ -4206,13 +4225,13 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="14.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="L55" s="3" t="s">
@@ -4223,13 +4242,13 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="14.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="L56" s="3" t="s">
@@ -4240,13 +4259,13 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="14.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="L57" s="3" t="s">
@@ -4257,13 +4276,13 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="14.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="L58" s="3" t="s">
@@ -4274,7 +4293,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="14.25">
       <c r="L59" s="3" t="s">
         <v>180</v>
       </c>
@@ -4283,7 +4302,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="14.25">
       <c r="L60" s="3" t="s">
         <v>166</v>
       </c>
@@ -4292,7 +4311,7 @@
         <v>gpio</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="14.25">
       <c r="L61" s="3" t="s">
         <v>169</v>
       </c>
@@ -4301,7 +4320,7 @@
         <v>gpio</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="14.25">
       <c r="L62" s="3" t="s">
         <v>181</v>
       </c>
@@ -4310,7 +4329,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="14.25">
       <c r="L63" s="3" t="s">
         <v>182</v>
       </c>
@@ -4319,7 +4338,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="14.25">
       <c r="L64" s="3" t="s">
         <v>183</v>
       </c>
@@ -4328,7 +4347,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="65" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:13" ht="14.25">
       <c r="L65" s="3" t="s">
         <v>184</v>
       </c>
@@ -4337,16 +4356,60 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="66" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="12:13" ht="14.25">
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:13" ht="14.25">
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:A5"/>
@@ -4356,50 +4419,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
   </mergeCells>
   <conditionalFormatting sqref="K3">
     <cfRule type="cellIs" dxfId="6" priority="2" operator="notEqual">
@@ -4425,27 +4444,24 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="111.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="111.875" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>188</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>187</v>
       </c>
@@ -4453,7 +4469,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>189</v>
       </c>
@@ -4461,7 +4477,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>190</v>
       </c>
@@ -4469,7 +4485,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>193</v>
       </c>
@@ -4477,7 +4493,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>194</v>
       </c>
@@ -4485,10 +4501,10 @@
         <v>191</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>192</v>
       </c>
@@ -4496,7 +4512,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>195</v>
       </c>
@@ -4504,13 +4520,13 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>196</v>
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>194</v>
       </c>
@@ -4519,73 +4535,73 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="B11" t="s">
         <v>202</v>
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>200</v>
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>201</v>
       </c>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5">
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5">
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5">
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5">
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5">
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5">
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5">
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5">
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5">
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5">
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5">
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5">
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5">
       <c r="E30" s="8"/>
     </row>
   </sheetData>
@@ -4598,83 +4614,80 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A7:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="A11" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="37.625" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1"/>
+    <col min="13" max="13" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+    <row r="7" spans="1:15">
+      <c r="A7" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+    </row>
+    <row r="8" spans="1:15" ht="36.75" customHeight="1">
+      <c r="A8" s="35" t="s">
         <v>197</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D8" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="47" t="s">
-        <v>278</v>
-      </c>
       <c r="F8" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>198</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K8" s="3"/>
-      <c r="L8" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="30"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="L8" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="47"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>273</v>
+      <c r="C9" s="17" t="s">
+        <v>271</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E9" s="8">
         <v>100</v>
@@ -4682,14 +4695,14 @@
       <c r="F9" s="8">
         <v>100</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>280</v>
+      <c r="G9" s="17" t="s">
+        <v>278</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>276</v>
+        <v>269</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>274</v>
       </c>
       <c r="L9" s="8" t="str" cm="1">
         <f t="array" ref="L9:O9">TRANSPOSE(I9:I12)</f>
@@ -4705,18 +4718,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:15">
+      <c r="A10" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>279</v>
+      <c r="C10" s="17" t="s">
+        <v>277</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E10" s="8">
         <v>0.4</v>
@@ -4724,44 +4737,44 @@
       <c r="F10" s="8">
         <v>0.4</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>282</v>
+      <c r="G10" s="17" t="s">
+        <v>280</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="K10" s="51" t="s">
-        <v>306</v>
-      </c>
-      <c r="L10" s="54">
+        <v>303</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="L10" s="38">
         <f>L11 * 3.3 / 1000</f>
         <v>0.87322949999999999</v>
       </c>
-      <c r="M10" s="54">
+      <c r="M10" s="38">
         <f>M11 * 5 / 1000</f>
         <v>1.6151312217194571</v>
       </c>
-      <c r="N10" s="54">
+      <c r="N10" s="38">
         <f t="shared" ref="N10:O10" si="0">SUM(N12:N39)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="54">
+      <c r="O10" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:15">
+      <c r="A11" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>279</v>
+      <c r="C11" s="17" t="s">
+        <v>277</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E11" s="8">
         <v>140</v>
@@ -4769,42 +4782,42 @@
       <c r="F11" s="8">
         <v>70</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>283</v>
+      <c r="G11" s="17" t="s">
+        <v>281</v>
       </c>
       <c r="I11" s="8"/>
       <c r="K11" s="48" t="s">
-        <v>289</v>
-      </c>
-      <c r="L11" s="52">
+        <v>287</v>
+      </c>
+      <c r="L11" s="42">
         <f>SUM(L13:L40)</f>
         <v>264.61500000000001</v>
       </c>
-      <c r="M11" s="52">
+      <c r="M11" s="42">
         <f>SUM(M13:M40)</f>
         <v>323.02624434389139</v>
       </c>
-      <c r="N11" s="52">
+      <c r="N11" s="42">
         <f t="shared" ref="N11:O11" si="1">SUM(N13:N40)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="52">
+      <c r="O11" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:15">
+      <c r="A12" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="17" t="s">
         <v>279</v>
       </c>
+      <c r="C12" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="D12" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E12" s="8">
         <v>0.4</v>
@@ -4812,28 +4825,28 @@
       <c r="F12" s="8">
         <v>0.4</v>
       </c>
-      <c r="G12" s="22" t="s">
-        <v>282</v>
+      <c r="G12" s="17" t="s">
+        <v>280</v>
       </c>
       <c r="I12" s="8"/>
       <c r="K12" s="49"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="17" t="s">
         <v>279</v>
       </c>
+      <c r="C13" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="D13" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E13" s="8">
         <v>140</v>
@@ -4841,42 +4854,42 @@
       <c r="F13" s="8">
         <v>70</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>283</v>
+      <c r="G13" s="17" t="s">
+        <v>281</v>
       </c>
       <c r="K13" s="8" t="str" cm="1">
         <f t="array" ref="K13:K41">'1.1'!E2:E30</f>
         <v>0. root</v>
       </c>
-      <c r="L13" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K13, $D$9:$D$1015, L$9)</f>
+      <c r="L13" s="37">
+        <f t="shared" ref="L13:O41" si="2">SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K13, $D$9:$D$1015, L$9)</f>
         <v>100.81500000000001</v>
       </c>
-      <c r="M13" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K13, $D$9:$D$1015, M$9)</f>
+      <c r="M13" s="37">
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
-      <c r="N13" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K13, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K13, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="N13" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>285</v>
+      <c r="B14" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>283</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E14" s="8">
         <v>1.4999999999999999E-2</v>
@@ -4884,41 +4897,41 @@
       <c r="F14" s="8">
         <v>1.2E-2</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>286</v>
+      <c r="G14" s="17" t="s">
+        <v>284</v>
       </c>
       <c r="K14" s="8" t="str">
         <v>1. GLV PSU</v>
       </c>
-      <c r="L14" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K14, $D$9:$D$1015, L$9)</f>
+      <c r="L14" s="37">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M14" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K14, $D$9:$D$1015, M$9)</f>
+      <c r="M14" s="37">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N14" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K14, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K14, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="N14" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>288</v>
+      <c r="B15" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>286</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E15" s="8">
         <v>1</v>
@@ -4926,39 +4939,39 @@
       <c r="F15" s="8">
         <v>1</v>
       </c>
-      <c r="G15" s="22"/>
+      <c r="G15" s="17"/>
       <c r="K15" s="8" t="str">
         <v>2. Eth</v>
       </c>
-      <c r="L15" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K15, $D$9:$D$1015, L$9)</f>
+      <c r="L15" s="37">
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="M15" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K15, $D$9:$D$1015, M$9)</f>
+      <c r="M15" s="37">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="N15" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K15, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K15, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="N15" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>288</v>
+      <c r="B16" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>286</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E16" s="8">
         <v>1</v>
@@ -4966,39 +4979,39 @@
       <c r="F16" s="8">
         <v>1</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="17"/>
       <c r="K16" s="8" t="str">
         <v>3. MCHS</v>
       </c>
-      <c r="L16" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K16, $D$9:$D$1015, L$9)</f>
+      <c r="L16" s="37">
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="M16" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K16, $D$9:$D$1015, M$9)</f>
+      <c r="M16" s="37">
+        <f t="shared" si="2"/>
         <v>32.026244343891399</v>
       </c>
-      <c r="N16" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K16, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K16, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="N16" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>292</v>
+      <c r="B17" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E17" s="8">
         <v>10</v>
@@ -5006,39 +5019,39 @@
       <c r="F17" s="8">
         <v>0</v>
       </c>
-      <c r="G17" s="22"/>
+      <c r="G17" s="17"/>
       <c r="K17" s="8" t="str">
         <v>4. HRLV intf</v>
       </c>
-      <c r="L17" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K17, $D$9:$D$1015, L$9)</f>
+      <c r="L17" s="37">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="M17" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K17, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K17, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K17, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="M17" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>292</v>
+      <c r="B18" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E18" s="8">
         <v>10</v>
@@ -5046,39 +5059,39 @@
       <c r="F18" s="8">
         <v>0</v>
       </c>
-      <c r="G18" s="22"/>
+      <c r="G18" s="17"/>
       <c r="K18" s="8" t="str">
         <v>5. AFF</v>
       </c>
-      <c r="L18" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K18, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K18, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K18, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K18, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="L18" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="C19" s="22" t="s">
+      <c r="B19" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>214</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E19" s="8">
         <v>132</v>
@@ -5086,39 +5099,39 @@
       <c r="F19" s="8">
         <v>15</v>
       </c>
-      <c r="G19" s="22"/>
+      <c r="G19" s="17"/>
       <c r="K19" s="8" t="str">
         <v>6. PWM sb1</v>
       </c>
-      <c r="L19" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K19, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K19, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K19, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K19, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="L19" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>295</v>
+      <c r="C20" s="17" t="s">
+        <v>293</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E20" s="8">
         <v>0</v>
@@ -5126,41 +5139,41 @@
       <c r="F20" s="8">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G20" s="22" t="s">
-        <v>296</v>
+      <c r="G20" s="17" t="s">
+        <v>294</v>
       </c>
       <c r="K20" s="8">
         <v>0</v>
       </c>
-      <c r="L20" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K20, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K20, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K20, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K20, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="L20" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>294</v>
+      <c r="C21" s="17" t="s">
+        <v>292</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E21" s="8">
         <v>30</v>
@@ -5168,41 +5181,41 @@
       <c r="F21" s="8">
         <v>2.05E-4</v>
       </c>
-      <c r="G21" s="22" t="s">
-        <v>296</v>
+      <c r="G21" s="17" t="s">
+        <v>294</v>
       </c>
       <c r="K21" s="8">
         <v>0</v>
       </c>
-      <c r="L21" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K21, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K21, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K21, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K21, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="L21" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>297</v>
+      <c r="C22" s="17" t="s">
+        <v>295</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E22" s="8">
         <v>0.9</v>
@@ -5210,41 +5223,41 @@
       <c r="F22" s="8">
         <v>1.5E-3</v>
       </c>
-      <c r="G22" s="22" t="s">
-        <v>300</v>
+      <c r="G22" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="K22" s="8">
         <v>0</v>
       </c>
-      <c r="L22" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K22, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K22, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K22, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K22, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="L22" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>298</v>
+      <c r="C23" s="17" t="s">
+        <v>296</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E23" s="8">
         <v>0.9</v>
@@ -5252,41 +5265,41 @@
       <c r="F23" s="8">
         <v>1.5E-3</v>
       </c>
-      <c r="G23" s="22" t="s">
-        <v>300</v>
+      <c r="G23" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="K23" s="8">
         <v>0</v>
       </c>
-      <c r="L23" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K23, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K23, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K23, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K23, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="L23" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>297</v>
+      <c r="C24" s="17" t="s">
+        <v>295</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E24" s="8">
         <v>0.4</v>
@@ -5294,41 +5307,41 @@
       <c r="F24" s="8">
         <v>1.2E-4</v>
       </c>
-      <c r="G24" s="22" t="s">
-        <v>299</v>
+      <c r="G24" s="17" t="s">
+        <v>297</v>
       </c>
       <c r="K24" s="8">
         <v>0</v>
       </c>
-      <c r="L24" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K24, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K24, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K24, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K24, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="L24" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>298</v>
+      <c r="C25" s="17" t="s">
+        <v>296</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E25" s="8">
         <v>0.4</v>
@@ -5336,41 +5349,41 @@
       <c r="F25" s="8">
         <v>1.2E-4</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+      <c r="L25" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="K25" s="8">
-        <v>0</v>
-      </c>
-      <c r="L25" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K25, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K25, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K25, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K25, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>301</v>
-      </c>
       <c r="D26" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E26" s="8">
         <f>5000/22100</f>
@@ -5380,39 +5393,39 @@
         <f>Table1[[#This Row],[load max (mA)]]</f>
         <v>0.22624434389140272</v>
       </c>
-      <c r="G26" s="22"/>
+      <c r="G26" s="17"/>
       <c r="K26" s="8">
         <v>0</v>
       </c>
-      <c r="L26" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K26, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K26, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K26, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K26, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="B27" s="22" t="s">
+      <c r="L26" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>303</v>
+      <c r="C27" s="17" t="s">
+        <v>301</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E27" s="8">
         <v>20</v>
@@ -5420,390 +5433,390 @@
       <c r="F27" s="8">
         <v>2</v>
       </c>
-      <c r="G27" s="22" t="s">
-        <v>304</v>
+      <c r="G27" s="17" t="s">
+        <v>302</v>
       </c>
       <c r="K27" s="8">
         <v>0</v>
       </c>
-      <c r="L27" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K27, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K27, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K27, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K27, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
+      <c r="L27" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="22"/>
+      <c r="G28" s="17"/>
       <c r="K28" s="8">
         <v>0</v>
       </c>
-      <c r="L28" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K28, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K28, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K28, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K28, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
+      <c r="L28" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="22"/>
+      <c r="G29" s="17"/>
       <c r="K29" s="8">
         <v>0</v>
       </c>
-      <c r="L29" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K29, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K29, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K29, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K29, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="L29" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="22"/>
+      <c r="G30" s="17"/>
       <c r="K30" s="8">
         <v>0</v>
       </c>
-      <c r="L30" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K30, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K30, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K30, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K30, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
+      <c r="L30" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="22"/>
+      <c r="G31" s="17"/>
       <c r="K31" s="8">
         <v>0</v>
       </c>
-      <c r="L31" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K31, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K31, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K31, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K31, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
+      <c r="L31" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="22"/>
+      <c r="G32" s="17"/>
       <c r="K32" s="8">
         <v>0</v>
       </c>
-      <c r="L32" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K32, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K32, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K32, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K32, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
+      <c r="L32" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="22"/>
+      <c r="G33" s="17"/>
       <c r="K33" s="8">
         <v>0</v>
       </c>
-      <c r="L33" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K33, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K33, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K33, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K33, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
+      <c r="L33" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="22"/>
+      <c r="G34" s="17"/>
       <c r="K34" s="8">
         <v>0</v>
       </c>
-      <c r="L34" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K34, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K34, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K34, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K34, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
+      <c r="L34" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="22"/>
+      <c r="G35" s="17"/>
       <c r="K35" s="8">
         <v>0</v>
       </c>
-      <c r="L35" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K35, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K35, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K35, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K35, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="L35" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="22"/>
+      <c r="G36" s="17"/>
       <c r="K36" s="8">
         <v>0</v>
       </c>
-      <c r="L36" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K36, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K36, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K36, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K36, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
+      <c r="L36" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="22"/>
+      <c r="G37" s="17"/>
       <c r="K37" s="8">
         <v>0</v>
       </c>
-      <c r="L37" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K37, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K37, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K37, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K37, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L37" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="K38" s="8">
         <v>0</v>
       </c>
-      <c r="L38" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K38, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K38, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K38, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K38, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L38" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="K39" s="8">
         <v>0</v>
       </c>
-      <c r="L39" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K39, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K39, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K39, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K39, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L39" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="K40" s="8">
         <v>0</v>
       </c>
-      <c r="L40" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K40, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K40, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K40, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K40, $D$9:$D$1015, O$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L40" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="K41" s="8">
         <v>0</v>
       </c>
-      <c r="L41" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K41, $D$9:$D$1015, L$9)</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K41, $D$9:$D$1015, M$9)</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K41, $D$9:$D$1015, N$9)</f>
-        <v>0</v>
-      </c>
-      <c r="O41" s="50">
-        <f>SUMIFS($E$9:$E$1015, $A$9:$A$1015, $K41, $D$9:$D$1015, O$9)</f>
+      <c r="L41" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="37">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5850,97 +5863,91 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="C44" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" customWidth="1"/>
-    <col min="15" max="15" width="27.42578125" customWidth="1"/>
+    <col min="2" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="12" max="12" width="20.75" customWidth="1"/>
+    <col min="13" max="13" width="11.25" customWidth="1"/>
+    <col min="14" max="14" width="16.75" customWidth="1"/>
+    <col min="15" max="15" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="28" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="30"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="M1" s="46"/>
+      <c r="N1" s="47"/>
+    </row>
+    <row r="2" spans="1:15" ht="28.5">
+      <c r="A2" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="K2" s="33"/>
       <c r="L2" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:15">
+      <c r="A3" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="20" t="s">
         <v>214</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -5949,40 +5956,40 @@
       <c r="E3" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="23" t="s">
         <v>213</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="14"/>
       <c r="J3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="14" t="str">
-        <f>IFERROR(INDEX($B$18:$B$1029, MATCH(M47, $G$18:$G$1029, 0)), "n/a")</f>
-        <v>Ethernet</v>
+      <c r="K3" s="1"/>
+      <c r="L3" s="41" t="str">
+        <f>IFERROR(INDEX($B$18:$B$1029, MATCH(M48, $G$18:$G$1029, 0)), "n/a")</f>
+        <v>n/a</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M3, $G$18:$G$1029, 0)), "free")</f>
-        <v>5V ODIO</v>
+      <c r="N3" s="14" t="str">
+        <f t="shared" ref="N3:N46" si="0">IFERROR(INDEX($H$18:$H$1029, MATCH($M3, $G$18:$G$1029, 0)), "free")</f>
+        <v>free</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="20" t="s">
         <v>216</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -5991,36 +5998,36 @@
       <c r="E4" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="23" t="s">
         <v>221</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="J4" s="34" t="s">
+      <c r="H4" s="14"/>
+      <c r="J4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="14"/>
+      <c r="L4" s="41"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M4, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N4" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>free</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:15">
+      <c r="A5" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="20" t="s">
         <v>217</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -6029,261 +6036,268 @@
       <c r="E5" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="23" t="s">
         <v>221</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="J5" s="34"/>
-      <c r="L5" s="14" t="str">
-        <f>IFERROR(INDEX($C$18:$C$1029, MATCH(M47, $G$18:$G$1029, 0)), "n/a")</f>
-        <v>controller CS</v>
+      <c r="H5" s="14"/>
+      <c r="J5" s="24"/>
+      <c r="L5" s="41" t="str">
+        <f>IFERROR(INDEX($C$18:$C$1029, MATCH(M48, $G$18:$G$1029, 0)), "n/a")</f>
+        <v>n/a</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M5, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N5" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>custom</v>
       </c>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+    <row r="6" spans="1:15">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="32"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="17"/>
-      <c r="J6" s="34"/>
-      <c r="L6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="J6" s="24"/>
+      <c r="L6" s="41"/>
       <c r="M6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M6, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N6" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>free</v>
       </c>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+    <row r="7" spans="1:15">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="32"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="17"/>
-      <c r="J7" s="35"/>
+      <c r="H7" s="14"/>
+      <c r="J7" s="25"/>
       <c r="L7" t="s">
         <v>234</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M7, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N7" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>free</v>
       </c>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+    <row r="8" spans="1:15">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="32"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="17"/>
+      <c r="H8" s="14"/>
       <c r="J8" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M8, $G$18:$G$1029, 0)), "free")</f>
-        <v>free</v>
+      <c r="N8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>gpio</v>
       </c>
       <c r="O8" s="8"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+    <row r="9" spans="1:15">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="32"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="17"/>
-      <c r="J9" s="34"/>
+      <c r="H9" s="14"/>
+      <c r="J9" s="24"/>
       <c r="M9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M9, $G$18:$G$1029, 0)), "free")</f>
-        <v>free</v>
+      <c r="N9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>gpio</v>
       </c>
       <c r="O9" s="8"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+    <row r="10" spans="1:15">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="32"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="17"/>
-      <c r="J10" s="34"/>
+      <c r="H10" s="14"/>
+      <c r="J10" s="24"/>
       <c r="M10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M10, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N10" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>free</v>
       </c>
       <c r="O10" s="8"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+    <row r="11" spans="1:15">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="32"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="17"/>
-      <c r="J11" s="35"/>
+      <c r="H11" s="14"/>
+      <c r="J11" s="25"/>
       <c r="M11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M11, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N11" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>free</v>
       </c>
       <c r="O11" s="8"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="M12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N12" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M12, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N12" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>free</v>
       </c>
       <c r="O12" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="M13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M13, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N13" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>free</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="M14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="N14" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M14, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N14" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>free</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="M15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N15" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M15, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N15" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>spi0 SCLK</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:15">
+      <c r="A16" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="K16" t="s">
+        <v>309</v>
+      </c>
       <c r="M16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="N16" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M16, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N16" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>spi0 MISO/POCI</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+    <row r="17" spans="1:15" ht="15" customHeight="1">
+      <c r="A17" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="22" t="s">
         <v>224</v>
+      </c>
+      <c r="K17" s="51" t="str" cm="1">
+        <f t="array" ref="K17:K19">_xlfn.UNIQUE(_xlfn._xlws.FILTER(G2:G1000, COUNTIF(G2:G1000, G2:G1000) &gt; 1))</f>
+        <v>SPI1</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N17" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M17, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N17" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>spi0 MOSI/PICO</v>
       </c>
       <c r="O17" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+    <row r="18" spans="1:15">
+      <c r="A18" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -6292,32 +6306,35 @@
       <c r="E18" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="23" t="s">
         <v>151</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H18" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>76</v>
+      </c>
+      <c r="K18" t="str">
+        <v>pin</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N18" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M18, $G$18:$G$1029, 0)), "free")</f>
-        <v>free</v>
+      <c r="N18" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>gpio</v>
       </c>
       <c r="O18" s="8"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+    <row r="19" spans="1:15">
+      <c r="A19" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -6326,32 +6343,35 @@
       <c r="E19" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="23" t="s">
         <v>151</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="14" t="s">
         <v>80</v>
+      </c>
+      <c r="K19" t="str">
+        <v>IGNORE</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N19" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M19, $G$18:$G$1029, 0)), "free")</f>
-        <v>free</v>
+      <c r="N19" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>spi1 MISO/POCI</v>
       </c>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:15">
+      <c r="A20" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -6360,32 +6380,32 @@
       <c r="E20" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="23" t="s">
         <v>151</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="14" t="s">
         <v>84</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="N20" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M20, $G$18:$G$1029, 0)), "free")</f>
-        <v>free</v>
+      <c r="N20" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>spi1 SCLK</v>
       </c>
       <c r="O20" s="8"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+    <row r="21" spans="1:15">
+      <c r="A21" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -6394,32 +6414,32 @@
       <c r="E21" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="23" t="s">
         <v>151</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="14" t="s">
         <v>87</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="N21" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M21, $G$18:$G$1029, 0)), "free")</f>
-        <v>free</v>
+      <c r="N21" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>spi1 MOSI/PICO</v>
       </c>
       <c r="O21" s="8"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:15">
+      <c r="A22" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -6428,34 +6448,34 @@
       <c r="E22" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="23" t="s">
         <v>151</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H22" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="14" t="s">
         <v>89</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="N22" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M22, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N22" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>SWDIO</v>
       </c>
       <c r="O22" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:15">
+      <c r="A23" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -6464,32 +6484,32 @@
       <c r="E23" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="23" t="s">
         <v>151</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="14" t="s">
         <v>92</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="N23" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M23, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N23" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>SWCLK</v>
       </c>
       <c r="O23" s="8"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:15">
+      <c r="A24" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="11" t="s">
@@ -6498,100 +6518,100 @@
       <c r="E24" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="23" t="s">
         <v>151</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H24" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="14" t="s">
         <v>95</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="N24" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M24, $G$18:$G$1029, 0)), "free")</f>
-        <v>free</v>
+      <c r="N24" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>UART2 TX</v>
       </c>
       <c r="O24" s="8"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+    <row r="25" spans="1:15">
+      <c r="A25" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>268</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>269</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="23" t="s">
         <v>151</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>270</v>
+        <v>88</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>307</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M25, $G$18:$G$1029, 0)), "free")</f>
-        <v>free</v>
+      <c r="N25" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>UART2 RX</v>
       </c>
       <c r="O25" s="8"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:15">
+      <c r="A26" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>268</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>269</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="23" t="s">
         <v>151</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>270</v>
+        <v>90</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>308</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="N26" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M26, $G$18:$G$1029, 0)), "free")</f>
-        <v>free</v>
+      <c r="N26" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>gpio</v>
       </c>
       <c r="O26" s="8"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+    <row r="27" spans="1:15">
+      <c r="A27" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="20" t="s">
         <v>235</v>
       </c>
       <c r="D27" s="11" t="s">
@@ -6600,32 +6620,32 @@
       <c r="E27" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="23" t="s">
         <v>151</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H27" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="H27" s="14" t="s">
         <v>76</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="N27" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M27, $G$18:$G$1029, 0)), "free")</f>
-        <v>free</v>
+      <c r="N27" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>gpio</v>
       </c>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+    <row r="28" spans="1:15">
+      <c r="A28" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="20" t="s">
         <v>236</v>
       </c>
       <c r="D28" s="11" t="s">
@@ -6634,353 +6654,364 @@
       <c r="E28" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="23" t="s">
         <v>151</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H28" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" s="14" t="s">
         <v>76</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="N28" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M28, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N28" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>free</v>
       </c>
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+    <row r="29" spans="1:15">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="32"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="17"/>
+      <c r="H29" s="14"/>
       <c r="M29" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="N29" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M29, $G$18:$G$1029, 0)), "free")</f>
-        <v>free</v>
+      <c r="N29" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>MCAN0 TX</v>
       </c>
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+    <row r="30" spans="1:15">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="32"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="17"/>
+      <c r="H30" s="14"/>
       <c r="M30" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="N30" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M30, $G$18:$G$1029, 0)), "free")</f>
-        <v>free</v>
+      <c r="N30" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>MCAN0 RX</v>
       </c>
       <c r="O30" s="8"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+    <row r="31" spans="1:15">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="32"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="17"/>
+      <c r="H31" s="14"/>
       <c r="M31" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="N31" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M31, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N31" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>free</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+    <row r="32" spans="1:15">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="32"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="10"/>
-      <c r="H32" s="17"/>
+      <c r="H32" s="14"/>
       <c r="M32" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="N32" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M32, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N32" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>free</v>
       </c>
       <c r="O32" s="8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+    <row r="33" spans="1:15">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
-      <c r="F33" s="32"/>
+      <c r="F33" s="23"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="17"/>
+      <c r="H33" s="14"/>
       <c r="M33" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="N33" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M33, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N33" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>free</v>
       </c>
       <c r="O33" s="8"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
+    <row r="34" spans="1:15">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
-      <c r="F34" s="32"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="10"/>
-      <c r="H34" s="17"/>
+      <c r="H34" s="14"/>
       <c r="M34" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="N34" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M34, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N34" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>free</v>
       </c>
       <c r="O34" s="8"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
+    <row r="35" spans="1:15">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="32"/>
+      <c r="F35" s="23"/>
       <c r="G35" s="10"/>
-      <c r="H35" s="17"/>
+      <c r="H35" s="14"/>
       <c r="M35" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="N35" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M35, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N35" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>free</v>
       </c>
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
+    <row r="36" spans="1:15">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="32"/>
+      <c r="F36" s="23"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="17"/>
+      <c r="H36" s="14"/>
       <c r="M36" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="N36" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M36, $G$18:$G$1029, 0)), "free")</f>
-        <v>free</v>
+      <c r="N36" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>gpio</v>
       </c>
       <c r="O36" s="8"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="M37" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="N37" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M37, $G$18:$G$1029, 0)), "free")</f>
-        <v>free</v>
+      <c r="N37" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>gpio</v>
       </c>
       <c r="O37" s="8"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="M38" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="N38" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M38, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N38" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>free</v>
       </c>
       <c r="O38" s="8"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="M39" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="N39" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M39, $G$18:$G$1029, 0)), "free")</f>
-        <v>free</v>
+      <c r="N39" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>gpio</v>
       </c>
       <c r="O39" s="8"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="M40" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="N40" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M40, $G$18:$G$1029, 0)), "free")</f>
-        <v>free</v>
+      <c r="N40" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>gpio</v>
       </c>
       <c r="O40" s="8"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="M41" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="N41" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M41, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N41" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>free</v>
       </c>
       <c r="O41" s="8"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="M42" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="N42" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M42, $G$18:$G$1029, 0)), "free")</f>
+      <c r="N42" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>free</v>
       </c>
       <c r="O42" s="8"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="M43" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="N43" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M43, $G$18:$G$1029, 0)), "free")</f>
-        <v>free</v>
+      <c r="N43" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>gpio</v>
       </c>
       <c r="O43" s="8"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="M44" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="N44" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M44, $G$18:$G$1029, 0)), "free")</f>
-        <v>free</v>
+      <c r="N44" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>gpio</v>
       </c>
       <c r="O44" s="8"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="M45" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="N45" s="17" t="str">
-        <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M45, $G$18:$G$1029, 0)), "free")</f>
-        <v>free</v>
+      <c r="N45" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>gpio</v>
       </c>
       <c r="O45" s="8"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="M46" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="N46" s="17" t="str">
+      <c r="N46" s="14" t="str">
         <f>IFERROR(INDEX($H$18:$H$1029, MATCH($M46, $G$18:$G$1029, 0)), "free")</f>
-        <v>free</v>
+        <v>gpio</v>
       </c>
       <c r="O46" s="8"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="M47" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="N47" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="M48" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="N47" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="O47" s="10" t="s">
+      <c r="N48" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="O48" s="10" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
+    <row r="49" spans="1:8">
+      <c r="A49" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+    </row>
+    <row r="50" spans="1:8" ht="15">
+      <c r="A50" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D50" s="39" t="s">
+      <c r="D50" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E50" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="F50" s="39" t="s">
+      <c r="F50" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="G50" s="39" t="s">
+      <c r="G50" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="H50" s="40" t="s">
+      <c r="H50" s="28" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="41" t="s">
+    <row r="51" spans="1:8">
+      <c r="A51" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="F51" s="44"/>
-      <c r="G51" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="H51" s="46" t="s">
+      <c r="F51" s="32"/>
+      <c r="G51" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="H51" s="34" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+    <row r="52" spans="1:8">
+      <c r="A52" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="20" t="s">
         <v>240</v>
       </c>
       <c r="D52" s="11" t="s">
@@ -6989,48 +7020,48 @@
       <c r="E52" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F52" s="32"/>
+      <c r="F52" s="23"/>
       <c r="G52" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H52" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H52" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+    <row r="53" spans="1:8">
+      <c r="A53" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="42" t="s">
+      <c r="C53" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="D53" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="E53" s="43" t="s">
+      <c r="E53" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="F53" s="44" t="s">
+      <c r="F53" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="G53" s="45" t="s">
+      <c r="G53" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="H53" s="46" t="s">
+      <c r="H53" s="34" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
+    <row r="54" spans="1:8">
+      <c r="A54" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="20" t="s">
         <v>242</v>
       </c>
       <c r="D54" s="11" t="s">
@@ -7039,50 +7070,50 @@
       <c r="E54" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F54" s="32" t="s">
+      <c r="F54" s="23" t="s">
         <v>241</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H54" s="17" t="s">
+      <c r="H54" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="41" t="s">
+    <row r="55" spans="1:8">
+      <c r="A55" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D55" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="D55" s="43" t="s">
+      <c r="E55" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F55" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="E55" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="F55" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="G55" s="45" t="s">
+      <c r="G55" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="46" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
+      <c r="H55" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="20" t="s">
         <v>133</v>
       </c>
       <c r="D56" s="11" t="s">
@@ -7091,46 +7122,46 @@
       <c r="E56" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F56" s="32"/>
+      <c r="F56" s="23"/>
       <c r="G56" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H56" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H56" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
+    <row r="57" spans="1:8">
+      <c r="A57" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="43" t="s">
+      <c r="E57" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="F57" s="44"/>
-      <c r="G57" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="H57" s="46" t="s">
+      <c r="F57" s="32"/>
+      <c r="G57" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H57" s="34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
+    <row r="58" spans="1:8">
+      <c r="A58" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="20" t="s">
         <v>244</v>
       </c>
       <c r="D58" s="11" t="s">
@@ -7139,46 +7170,46 @@
       <c r="E58" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F58" s="32"/>
+      <c r="F58" s="23"/>
       <c r="G58" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H58" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H58" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="41" t="s">
+    <row r="59" spans="1:8">
+      <c r="A59" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="C59" s="42" t="s">
+      <c r="C59" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="D59" s="43" t="s">
+      <c r="D59" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="43" t="s">
+      <c r="E59" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="F59" s="44"/>
-      <c r="G59" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="H59" s="46" t="s">
+      <c r="F59" s="32"/>
+      <c r="G59" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H59" s="34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
+    <row r="60" spans="1:8">
+      <c r="A60" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="20" t="s">
         <v>246</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -7187,48 +7218,48 @@
       <c r="E60" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="F60" s="32" t="s">
+      <c r="F60" s="23" t="s">
         <v>248</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H60" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H60" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="41" t="s">
+    <row r="61" spans="1:8">
+      <c r="A61" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="D61" s="43" t="s">
+      <c r="D61" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="43" t="s">
+      <c r="E61" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="F61" s="44"/>
-      <c r="G61" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="H61" s="46" t="s">
+      <c r="F61" s="32"/>
+      <c r="G61" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="H61" s="34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
+    <row r="62" spans="1:8">
+      <c r="A62" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="20" t="s">
         <v>251</v>
       </c>
       <c r="D62" s="11" t="s">
@@ -7237,48 +7268,50 @@
       <c r="E62" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F62" s="32"/>
+      <c r="F62" s="23" t="s">
+        <v>312</v>
+      </c>
       <c r="G62" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H62" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="H62" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="41" t="s">
+    <row r="63" spans="1:8">
+      <c r="A63" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C63" s="42" t="s">
+      <c r="C63" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="F63" s="44" t="s">
+      <c r="F63" s="32" t="s">
         <v>253</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H63" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="H63" s="34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
+    <row r="64" spans="1:8">
+      <c r="A64" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="20" t="s">
         <v>255</v>
       </c>
       <c r="D64" s="11" t="s">
@@ -7287,117 +7320,117 @@
       <c r="E64" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F64" s="32"/>
+      <c r="F64" s="23"/>
       <c r="G64" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H64" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="H64" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="41" t="s">
+    <row r="65" spans="1:8">
+      <c r="A65" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="C65" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="D65" s="43" t="s">
+      <c r="C65" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="D65" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="E65" s="43" t="s">
+      <c r="E65" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="F65" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="G65" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="H65" s="46" t="s">
+      <c r="F65" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="G65" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="H65" s="34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C66" s="20" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>266</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>83</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="F66" s="32"/>
+        <v>300</v>
+      </c>
+      <c r="F66" s="23"/>
       <c r="G66" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H66" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="H66" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="B67" s="42" t="s">
+    <row r="67" spans="1:8">
+      <c r="A67" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="B67" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="C67" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="D67" s="43" t="s">
+      <c r="C67" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="D67" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="E67" s="43" t="s">
-        <v>302</v>
-      </c>
-      <c r="F67" s="44"/>
-      <c r="G67" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="H67" s="46" t="s">
+      <c r="E67" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="F67" s="32"/>
+      <c r="G67" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="H67" s="34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
+    <row r="68" spans="1:8">
+      <c r="A68" s="19"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
-      <c r="F68" s="32"/>
+      <c r="F68" s="23"/>
       <c r="G68" s="10"/>
-      <c r="H68" s="17"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="46"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="29"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="34"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="19"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
-      <c r="F70" s="32"/>
+      <c r="F70" s="23"/>
       <c r="G70" s="10"/>
-      <c r="H70" s="17"/>
+      <c r="H70" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7413,8 +7446,6 @@
     <cfRule type="cellIs" dxfId="4" priority="4" operator="notEqual">
       <formula>"n/a"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
@@ -7423,8 +7454,6 @@
     <cfRule type="cellIs" dxfId="2" priority="2" operator="notEqual">
       <formula>"n/a"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"n/a"</formula>
     </cfRule>
@@ -7434,19 +7463,20 @@
       <formula1>$J$3:$J$7</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G51:G70 G18:G36" xr:uid="{FD36B83F-1D1A-42D5-9E6E-A39E1A019BCB}">
-      <formula1>$M$3:$M$47</formula1>
+      <formula1>$M$3:$M$48</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D36" xr:uid="{B9448B54-17F4-46CD-B0B1-4C49C361E2E1}">
       <formula1>$J$3:$J$11</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="4">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">

--- a/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
+++ b/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\BeeMS\hardware\MasterBoard_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E681688-8E19-466A-8069-6E4D4079A87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EAB0D3-4DC3-484D-8920-27A86FA33E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="0" windowWidth="12210" windowHeight="12885" activeTab="3" xr2:uid="{4093912D-66FD-41A9-9A54-7EA13A7B271E}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="12210" windowHeight="12885" activeTab="3" xr2:uid="{4093912D-66FD-41A9-9A54-7EA13A7B271E}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0 routing" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="315">
   <si>
     <t>last updated</t>
   </si>
@@ -897,9 +897,6 @@
     <t>PU</t>
   </si>
   <si>
-    <t>damageable</t>
-  </si>
-  <si>
     <t>forwarding control</t>
   </si>
   <si>
@@ -957,9 +954,6 @@
     <t>UART TX</t>
   </si>
   <si>
-    <t>UART ui</t>
-  </si>
-  <si>
     <t>3v3</t>
   </si>
   <si>
@@ -1092,10 +1086,16 @@
     <t>removed</t>
   </si>
   <si>
-    <t xml:space="preserve">20hpgpioD </t>
-  </si>
-  <si>
-    <t>24hegpioDr</t>
+    <t>caution. see schematic.</t>
+  </si>
+  <si>
+    <t>SD card</t>
+  </si>
+  <si>
+    <t>UART 2</t>
+  </si>
+  <si>
+    <t>CS</t>
   </si>
 </sst>
 </file>
@@ -1440,6 +1440,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1476,7 +1477,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2759,22 +2759,22 @@
       <selection activeCell="E35" sqref="E35:F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="14.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="1" customWidth="1"/>
-    <col min="9" max="12" width="9.125" style="1"/>
-    <col min="13" max="13" width="20.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.125" style="1"/>
-    <col min="15" max="15" width="13.75" style="1" customWidth="1"/>
-    <col min="16" max="18" width="9.125" style="1"/>
+    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="20.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="16" max="18" width="9.140625" style="1"/>
     <col min="19" max="19" width="123" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.125" style="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1">
@@ -2795,16 +2795,16 @@
       <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
       <c r="S1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="42.75">
+    <row r="2" spans="1:19" ht="45">
       <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2823,16 +2823,16 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2852,28 +2852,28 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="23.85" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="40"/>
+      <c r="H4" s="41"/>
       <c r="L4" s="3" t="s">
         <v>20</v>
       </c>
@@ -2885,13 +2885,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="14.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
+    <row r="5" spans="1:19">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="42.75">
+    <row r="6" spans="1:19" ht="45">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="42.75">
+    <row r="7" spans="1:19" ht="45">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="28.5">
+    <row r="8" spans="1:19" ht="30">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="14.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3031,7 +3031,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="14.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3051,7 +3051,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="14.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3071,7 +3071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="28.5">
+    <row r="12" spans="1:19" ht="30">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3091,7 +3091,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="14.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3111,7 +3111,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="14.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3131,7 +3131,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="14.25">
+    <row r="15" spans="1:19">
       <c r="L15" s="3" t="s">
         <v>57</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="14.25">
+    <row r="16" spans="1:19">
       <c r="L16" s="3" t="s">
         <v>59</v>
       </c>
@@ -3156,16 +3156,16 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="23.85" customHeight="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
       <c r="L17" s="3" t="s">
         <v>62</v>
       </c>
@@ -3178,26 +3178,26 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40" t="s">
+      <c r="F18" s="41"/>
+      <c r="G18" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="40"/>
+      <c r="H18" s="41"/>
       <c r="L18" s="3" t="s">
         <v>68</v>
       </c>
@@ -3209,13 +3209,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="14.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
+    <row r="19" spans="1:19">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="5" t="s">
         <v>70</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="14.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="28.5">
+    <row r="22" spans="1:19" ht="30">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="14.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>UART2 tx</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="42.75">
+    <row r="24" spans="1:19" ht="45">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="14.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
@@ -3383,8 +3383,8 @@
       <c r="D25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
       <c r="G25" s="3" t="s">
         <v>68</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="14.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -3411,8 +3411,8 @@
       <c r="D26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
       <c r="G26" s="3" t="s">
         <v>77</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="28.5">
+    <row r="27" spans="1:19" ht="30">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -3443,8 +3443,8 @@
       <c r="D27" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
       <c r="G27" s="3" t="s">
         <v>100</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="14.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -3475,8 +3475,8 @@
       <c r="D28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
       <c r="G28" s="3" t="s">
         <v>103</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>MCAN0 TX</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="14.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="3" t="s">
         <v>105</v>
       </c>
@@ -3504,8 +3504,8 @@
       <c r="D29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
       <c r="G29" s="3" t="s">
         <v>88</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>MCAN0 RX</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="14.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="3" t="s">
         <v>105</v>
       </c>
@@ -3533,8 +3533,8 @@
       <c r="D30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
       <c r="G30" s="3" t="s">
         <v>90</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="14.25">
+    <row r="31" spans="1:19">
       <c r="L31" s="3" t="s">
         <v>112</v>
       </c>
@@ -3559,16 +3559,16 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
       <c r="L32" s="3" t="s">
         <v>114</v>
       </c>
@@ -3578,26 +3578,26 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40" t="s">
+      <c r="F33" s="41"/>
+      <c r="G33" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="40"/>
+      <c r="H33" s="41"/>
       <c r="L33" s="3" t="s">
         <v>116</v>
       </c>
@@ -3606,13 +3606,13 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="14.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
+    <row r="34" spans="1:13">
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="5" t="s">
         <v>70</v>
       </c>
@@ -3640,10 +3640,10 @@
       <c r="D35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E35" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="3" t="s">
         <v>104</v>
       </c>
@@ -3671,10 +3671,10 @@
       <c r="D36" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="41" t="s">
+      <c r="E36" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="41"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="3" t="s">
         <v>109</v>
       </c>
@@ -3702,10 +3702,10 @@
       <c r="D37" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E37" s="41" t="s">
+      <c r="E37" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F37" s="41"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="3" t="s">
         <v>81</v>
       </c>
@@ -3733,10 +3733,10 @@
       <c r="D38" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F38" s="41"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="3" t="s">
         <v>85</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="14.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>26</v>
       </c>
@@ -3764,8 +3764,8 @@
       <c r="D39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
       <c r="G39" s="3" t="s">
         <v>122</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="14.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="3" t="s">
         <v>26</v>
       </c>
@@ -3793,8 +3793,8 @@
       <c r="D40" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
       <c r="G40" s="3" t="s">
         <v>36</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="14.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="3" t="s">
         <v>26</v>
       </c>
@@ -3822,8 +3822,8 @@
       <c r="D41" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
       <c r="G41" s="3" t="s">
         <v>43</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>gpio</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="28.5">
+    <row r="42" spans="1:13" ht="30">
       <c r="A42" s="3" t="s">
         <v>26</v>
       </c>
@@ -3851,8 +3851,8 @@
       <c r="D42" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
       <c r="G42" s="3" t="s">
         <v>117</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="28.5">
+    <row r="43" spans="1:13" ht="30">
       <c r="A43" s="3" t="s">
         <v>26</v>
       </c>
@@ -3880,8 +3880,8 @@
       <c r="D43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
       <c r="G43" s="3" t="s">
         <v>129</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="28.5">
+    <row r="44" spans="1:13" ht="30">
       <c r="A44" s="3" t="s">
         <v>26</v>
       </c>
@@ -3909,8 +3909,8 @@
       <c r="D44" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
       <c r="G44" s="3" t="s">
         <v>124</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="28.5">
+    <row r="45" spans="1:13" ht="30">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
@@ -3938,8 +3938,8 @@
       <c r="D45" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
       <c r="G45" s="3" t="s">
         <v>93</v>
       </c>
@@ -3967,10 +3967,10 @@
       <c r="D46" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E46" s="41" t="s">
+      <c r="E46" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="F46" s="41"/>
+      <c r="F46" s="42"/>
       <c r="G46" s="3" t="s">
         <v>151</v>
       </c>
@@ -3998,10 +3998,10 @@
       <c r="D47" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E47" s="41" t="s">
+      <c r="E47" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="F47" s="41"/>
+      <c r="F47" s="42"/>
       <c r="G47" s="3" t="s">
         <v>151</v>
       </c>
@@ -4029,10 +4029,10 @@
       <c r="D48" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="41" t="s">
+      <c r="E48" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="F48" s="41"/>
+      <c r="F48" s="42"/>
       <c r="G48" s="3" t="s">
         <v>151</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="28.5">
+    <row r="49" spans="1:13" ht="30">
       <c r="A49" s="3" t="s">
         <v>26</v>
       </c>
@@ -4060,8 +4060,8 @@
       <c r="D49" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
       <c r="G49" s="3" t="s">
         <v>96</v>
       </c>
@@ -4089,10 +4089,10 @@
       <c r="D50" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="F50" s="41"/>
+      <c r="F50" s="42"/>
       <c r="G50" s="3" t="s">
         <v>151</v>
       </c>
@@ -4120,10 +4120,10 @@
       <c r="D51" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="E51" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="F51" s="41"/>
+      <c r="F51" s="42"/>
       <c r="G51" s="3" t="s">
         <v>166</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="42.75">
+    <row r="52" spans="1:13" ht="45">
       <c r="A52" s="3" t="s">
         <v>26</v>
       </c>
@@ -4151,8 +4151,8 @@
       <c r="D52" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
       <c r="G52" s="3" t="s">
         <v>169</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="14.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="3" t="s">
         <v>26</v>
       </c>
@@ -4180,8 +4180,8 @@
       <c r="D53" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
       <c r="G53" s="3" t="s">
         <v>162</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="14.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="3" t="s">
         <v>26</v>
       </c>
@@ -4209,8 +4209,8 @@
       <c r="D54" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
       <c r="G54" s="3" t="s">
         <v>160</v>
       </c>
@@ -4225,13 +4225,13 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="14.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="L55" s="3" t="s">
@@ -4242,13 +4242,13 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="14.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="L56" s="3" t="s">
@@ -4259,13 +4259,13 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="14.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="L57" s="3" t="s">
@@ -4276,13 +4276,13 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="14.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="L58" s="3" t="s">
@@ -4293,7 +4293,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="14.25">
+    <row r="59" spans="1:13">
       <c r="L59" s="3" t="s">
         <v>180</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="14.25">
+    <row r="60" spans="1:13">
       <c r="L60" s="3" t="s">
         <v>166</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>gpio</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="14.25">
+    <row r="61" spans="1:13">
       <c r="L61" s="3" t="s">
         <v>169</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>gpio</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="14.25">
+    <row r="62" spans="1:13">
       <c r="L62" s="3" t="s">
         <v>181</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="14.25">
+    <row r="63" spans="1:13">
       <c r="L63" s="3" t="s">
         <v>182</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="14.25">
+    <row r="64" spans="1:13">
       <c r="L64" s="3" t="s">
         <v>183</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="65" spans="12:13" ht="14.25">
+    <row r="65" spans="12:13">
       <c r="L65" s="3" t="s">
         <v>184</v>
       </c>
@@ -4356,11 +4356,11 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="66" spans="12:13" ht="14.25">
+    <row r="66" spans="12:13">
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="12:13" ht="14.25">
+    <row r="67" spans="12:13">
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
     </row>
@@ -4446,11 +4446,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="111.875" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="111.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4458,7 +4458,7 @@
         <v>188</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4501,7 +4501,7 @@
         <v>191</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4616,32 +4616,32 @@
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="37.625" customWidth="1"/>
-    <col min="8" max="8" width="9.125" customWidth="1"/>
-    <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="9.625" customWidth="1"/>
-    <col min="11" max="11" width="14.75" customWidth="1"/>
-    <col min="13" max="13" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:15">
-      <c r="A7" s="44" t="s">
-        <v>272</v>
-      </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
+      <c r="A7" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:15" ht="36.75" customHeight="1">
       <c r="A8" s="35" t="s">
@@ -4651,30 +4651,30 @@
         <v>203</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D8" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="E8" s="35" t="s">
-        <v>276</v>
-      </c>
       <c r="F8" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>198</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K8" s="3"/>
-      <c r="L8" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="47"/>
+      <c r="L8" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="48"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="17" t="s">
@@ -4684,10 +4684,10 @@
         <v>106</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E9" s="8">
         <v>100</v>
@@ -4696,13 +4696,13 @@
         <v>100</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L9" s="8" t="str" cm="1">
         <f t="array" ref="L9:O9">TRANSPOSE(I9:I12)</f>
@@ -4726,10 +4726,10 @@
         <v>238</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E10" s="8">
         <v>0.4</v>
@@ -4738,13 +4738,13 @@
         <v>0.4</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L10" s="38">
         <f>L11 * 3.3 / 1000</f>
@@ -4771,10 +4771,10 @@
         <v>238</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E11" s="8">
         <v>140</v>
@@ -4783,25 +4783,25 @@
         <v>70</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I11" s="8"/>
-      <c r="K11" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="L11" s="42">
+      <c r="K11" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="L11" s="43">
         <f>SUM(L13:L40)</f>
         <v>264.61500000000001</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11" s="43">
         <f>SUM(M13:M40)</f>
         <v>323.02624434389139</v>
       </c>
-      <c r="N11" s="42">
+      <c r="N11" s="43">
         <f t="shared" ref="N11:O11" si="1">SUM(N13:N40)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="42">
+      <c r="O11" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4811,13 +4811,13 @@
         <v>205</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E12" s="8">
         <v>0.4</v>
@@ -4826,27 +4826,27 @@
         <v>0.4</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="17" t="s">
         <v>205</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E13" s="8">
         <v>140</v>
@@ -4855,7 +4855,7 @@
         <v>70</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K13" s="8" t="str" cm="1">
         <f t="array" ref="K13:K41">'1.1'!E2:E30</f>
@@ -4883,13 +4883,13 @@
         <v>205</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E14" s="8">
         <v>1.4999999999999999E-2</v>
@@ -4898,7 +4898,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K14" s="8" t="str">
         <v>1. GLV PSU</v>
@@ -4925,13 +4925,13 @@
         <v>206</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E15" s="8">
         <v>1</v>
@@ -4965,13 +4965,13 @@
         <v>206</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E16" s="8">
         <v>1</v>
@@ -5005,13 +5005,13 @@
         <v>207</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E17" s="8">
         <v>10</v>
@@ -5045,13 +5045,13 @@
         <v>207</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E18" s="8">
         <v>10</v>
@@ -5085,13 +5085,13 @@
         <v>207</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>214</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E19" s="8">
         <v>132</v>
@@ -5128,10 +5128,10 @@
         <v>215</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E20" s="8">
         <v>0</v>
@@ -5140,7 +5140,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K20" s="8">
         <v>0</v>
@@ -5170,10 +5170,10 @@
         <v>215</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E21" s="8">
         <v>30</v>
@@ -5182,7 +5182,7 @@
         <v>2.05E-4</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K21" s="8">
         <v>0</v>
@@ -5212,10 +5212,10 @@
         <v>215</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E22" s="8">
         <v>0.9</v>
@@ -5224,7 +5224,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K22" s="8">
         <v>0</v>
@@ -5254,10 +5254,10 @@
         <v>215</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E23" s="8">
         <v>0.9</v>
@@ -5266,7 +5266,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K23" s="8">
         <v>0</v>
@@ -5296,10 +5296,10 @@
         <v>215</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E24" s="8">
         <v>0.4</v>
@@ -5308,7 +5308,7 @@
         <v>1.2E-4</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K24" s="8">
         <v>0</v>
@@ -5338,10 +5338,10 @@
         <v>215</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E25" s="8">
         <v>0.4</v>
@@ -5350,7 +5350,7 @@
         <v>1.2E-4</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K25" s="8">
         <v>0</v>
@@ -5377,13 +5377,13 @@
         <v>208</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E26" s="8">
         <f>5000/22100</f>
@@ -5416,16 +5416,16 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>238</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E27" s="8">
         <v>20</v>
@@ -5434,7 +5434,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K27" s="8">
         <v>0</v>
@@ -5863,43 +5863,43 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C44" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="H24" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="5" width="9.625" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="8" width="20.75" customWidth="1"/>
-    <col min="12" max="12" width="20.75" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
-    <col min="14" max="14" width="16.75" customWidth="1"/>
-    <col min="15" max="15" width="27.375" customWidth="1"/>
+    <col min="2" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" customWidth="1"/>
+    <col min="15" max="15" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="47"/>
-    </row>
-    <row r="2" spans="1:15" ht="28.5">
+      <c r="M1" s="47"/>
+      <c r="N1" s="48"/>
+    </row>
+    <row r="2" spans="1:15" ht="30">
       <c r="A2" s="21" t="s">
         <v>197</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>42</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="41" t="str">
+      <c r="L3" s="42" t="str">
         <f>IFERROR(INDEX($B$18:$B$1029, MATCH(M48, $G$18:$G$1029, 0)), "n/a")</f>
         <v>n/a</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>6</v>
       </c>
       <c r="N3" s="14" t="str">
-        <f t="shared" ref="N3:N46" si="0">IFERROR(INDEX($H$18:$H$1029, MATCH($M3, $G$18:$G$1029, 0)), "free")</f>
+        <f t="shared" ref="N3:N45" si="0">IFERROR(INDEX($H$18:$H$1029, MATCH($M3, $G$18:$G$1029, 0)), "free")</f>
         <v>free</v>
       </c>
       <c r="O3" s="8" t="s">
@@ -6008,7 +6008,7 @@
       <c r="J4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="41"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="H5" s="14"/>
       <c r="J5" s="24"/>
-      <c r="L5" s="41" t="str">
+      <c r="L5" s="42" t="str">
         <f>IFERROR(INDEX($C$18:$C$1029, MATCH(M48, $G$18:$G$1029, 0)), "n/a")</f>
         <v>n/a</v>
       </c>
@@ -6055,7 +6055,9 @@
         <f t="shared" si="0"/>
         <v>custom</v>
       </c>
-      <c r="O5" s="8"/>
+      <c r="O5" s="8" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="19"/>
@@ -6067,7 +6069,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="14"/>
       <c r="J6" s="24"/>
-      <c r="L6" s="41"/>
+      <c r="L6" s="42"/>
       <c r="M6" s="9" t="s">
         <v>24</v>
       </c>
@@ -6109,7 +6111,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="14"/>
       <c r="J8" s="10" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>36</v>
@@ -6226,18 +6228,18 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
       <c r="K16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>57</v>
@@ -6275,7 +6277,7 @@
       <c r="H17" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="K17" s="51" t="str" cm="1">
+      <c r="K17" s="39" t="str" cm="1">
         <f t="array" ref="K17:K19">_xlfn.UNIQUE(_xlfn._xlws.FILTER(G2:G1000, COUNTIF(G2:G1000, G2:G1000) &gt; 1))</f>
         <v>SPI1</v>
       </c>
@@ -6544,10 +6546,10 @@
         <v>106</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>79</v>
@@ -6559,7 +6561,7 @@
         <v>88</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>90</v>
@@ -6578,10 +6580,10 @@
         <v>106</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>79</v>
@@ -6593,7 +6595,7 @@
         <v>90</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>93</v>
@@ -6673,14 +6675,30 @@
       <c r="O28" s="8"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="14"/>
+      <c r="A29" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="M29" s="9" t="s">
         <v>104</v>
       </c>
@@ -6866,7 +6884,7 @@
       </c>
       <c r="N41" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>free</v>
+        <v>gpio</v>
       </c>
       <c r="O41" s="8"/>
     </row>
@@ -6922,13 +6940,13 @@
     </row>
     <row r="47" spans="1:15">
       <c r="M47" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N47" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -6936,25 +6954,25 @@
         <v>231</v>
       </c>
       <c r="N48" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O48" s="10" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-    </row>
-    <row r="50" spans="1:8" ht="15">
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="26" t="s">
         <v>197</v>
       </c>
@@ -7088,22 +7106,22 @@
         <v>106</v>
       </c>
       <c r="C55" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="D55" s="31" t="s">
         <v>259</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>260</v>
       </c>
       <c r="E55" s="31" t="s">
         <v>151</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G55" s="33" t="s">
         <v>20</v>
       </c>
       <c r="H55" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7219,7 +7237,7 @@
         <v>247</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>103</v>
@@ -7236,7 +7254,7 @@
         <v>140</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D61" s="31" t="s">
         <v>79</v>
@@ -7257,10 +7275,10 @@
         <v>205</v>
       </c>
       <c r="B62" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C62" s="20" t="s">
         <v>250</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>251</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>158</v>
@@ -7269,10 +7287,10 @@
         <v>151</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H62" s="14" t="s">
         <v>158</v>
@@ -7286,7 +7304,7 @@
         <v>214</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D63" s="31" t="s">
         <v>79</v>
@@ -7295,7 +7313,7 @@
         <v>151</v>
       </c>
       <c r="F63" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>155</v>
@@ -7312,7 +7330,7 @@
         <v>214</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>83</v>
@@ -7333,42 +7351,42 @@
         <v>208</v>
       </c>
       <c r="B65" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="D65" s="31" t="s">
         <v>256</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="D65" s="31" t="s">
-        <v>257</v>
       </c>
       <c r="E65" s="31" t="s">
         <v>151</v>
       </c>
       <c r="F65" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G65" s="33" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>83</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="10" t="s">
@@ -7380,19 +7398,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D67" s="31" t="s">
         <v>83</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F67" s="32"/>
       <c r="G67" s="33" t="s">

--- a/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
+++ b/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\BeeMS\hardware\MasterBoard_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EAB0D3-4DC3-484D-8920-27A86FA33E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A185158D-A5E1-4930-A981-36186331D09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="12210" windowHeight="12885" activeTab="3" xr2:uid="{4093912D-66FD-41A9-9A54-7EA13A7B271E}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="12210" windowHeight="12885" activeTab="1" xr2:uid="{4093912D-66FD-41A9-9A54-7EA13A7B271E}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0 routing" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="1.1 routing" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -151,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="331">
   <si>
     <t>last updated</t>
   </si>
@@ -756,9 +757,6 @@
     <t>notes for future itterations</t>
   </si>
   <si>
-    <t>maybe add another onboard relay to control precharge, use MCHS to determine when precharge done/ for now we can just send CAN to the motec</t>
-  </si>
-  <si>
     <t>swapped IL relay 12v  for 24v</t>
   </si>
   <si>
@@ -1096,6 +1094,57 @@
   </si>
   <si>
     <t>CS</t>
+  </si>
+  <si>
+    <t>opto coupler footprint too big</t>
+  </si>
+  <si>
+    <t>single 50kR ???</t>
+  </si>
+  <si>
+    <t>100R look cool . Wrong footprint</t>
+  </si>
+  <si>
+    <t>single 22nF</t>
+  </si>
+  <si>
+    <t>fish connector is not keyed on footprint</t>
+  </si>
+  <si>
+    <t>very cool sd card holder. Keep using it</t>
+  </si>
+  <si>
+    <t>glv ov/uv/rpp IC died. Probably caused by conformal coating not completely dried(?)</t>
+  </si>
+  <si>
+    <t>~32mA @12V passive draw (according to cheesy benchtop PSU)</t>
+  </si>
+  <si>
+    <t>add ground and power rail tap poitns. For ocilliscopeing :(</t>
+  </si>
+  <si>
+    <t>order 2x2 microfit header and receptical</t>
+  </si>
+  <si>
+    <t>order microfit crimps :(</t>
+  </si>
+  <si>
+    <t>keep the mouning hole size, it happens to fit the pastic standoffs in the archine</t>
+  </si>
+  <si>
+    <t>bought the wrong MCU varient :(((  , bought 3505 instaed of 3507</t>
+  </si>
+  <si>
+    <t>connect the reset line</t>
+  </si>
+  <si>
+    <t>blue indicator led is perfect brightness for non essential indicator. Could be brighter</t>
+  </si>
+  <si>
+    <t>green leds by the PSU bucks too bright, reduce by like %50</t>
+  </si>
+  <si>
+    <t>the interlock LED is absurdly bright D:</t>
   </si>
 </sst>
 </file>
@@ -4442,9 +4491,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82506FE1-B017-4B5D-A74A-A8C038FEF2D3}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4458,7 +4509,7 @@
         <v>188</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4466,7 +4517,7 @@
         <v>187</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4474,7 +4525,7 @@
         <v>189</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4482,7 +4533,7 @@
         <v>190</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4490,7 +4541,7 @@
         <v>193</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4501,7 +4552,7 @@
         <v>191</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4509,7 +4560,7 @@
         <v>192</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4517,7 +4568,7 @@
         <v>195</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4537,7 +4588,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E11" s="8"/>
     </row>
@@ -4561,48 +4612,102 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>201</v>
+        <v>319</v>
       </c>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>314</v>
+      </c>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>315</v>
+      </c>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>316</v>
+      </c>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>317</v>
+      </c>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>318</v>
+      </c>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>320</v>
+      </c>
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>329</v>
+      </c>
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>321</v>
+      </c>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>322</v>
+      </c>
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>323</v>
+      </c>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="2:5">
+      <c r="B28" t="s">
+        <v>324</v>
+      </c>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="2:5">
+      <c r="B29" t="s">
+        <v>325</v>
+      </c>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>326</v>
+      </c>
       <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>330</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4634,7 +4739,7 @@
   <sheetData>
     <row r="7" spans="1:15">
       <c r="A7" s="45" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="45"/>
@@ -4648,29 +4753,29 @@
         <v>197</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D8" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>272</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>273</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>198</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M8" s="47"/>
       <c r="N8" s="47"/>
@@ -4678,16 +4783,16 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E9" s="8">
         <v>100</v>
@@ -4696,13 +4801,13 @@
         <v>100</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L9" s="8" t="str" cm="1">
         <f t="array" ref="L9:O9">TRANSPOSE(I9:I12)</f>
@@ -4720,16 +4825,16 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E10" s="8">
         <v>0.4</v>
@@ -4738,13 +4843,13 @@
         <v>0.4</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="K10" s="36" t="s">
         <v>301</v>
-      </c>
-      <c r="K10" s="36" t="s">
-        <v>302</v>
       </c>
       <c r="L10" s="38">
         <f>L11 * 3.3 / 1000</f>
@@ -4765,16 +4870,16 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E11" s="8">
         <v>140</v>
@@ -4783,11 +4888,11 @@
         <v>70</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I11" s="8"/>
       <c r="K11" s="49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L11" s="43">
         <f>SUM(L13:L40)</f>
@@ -4808,16 +4913,16 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E12" s="8">
         <v>0.4</v>
@@ -4826,7 +4931,7 @@
         <v>0.4</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I12" s="8"/>
       <c r="K12" s="50"/>
@@ -4837,16 +4942,16 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E13" s="8">
         <v>140</v>
@@ -4855,7 +4960,7 @@
         <v>70</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K13" s="8" t="str" cm="1">
         <f t="array" ref="K13:K41">'1.1'!E2:E30</f>
@@ -4880,16 +4985,16 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B14" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>281</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E14" s="8">
         <v>1.4999999999999999E-2</v>
@@ -4898,7 +5003,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K14" s="8" t="str">
         <v>1. GLV PSU</v>
@@ -4922,16 +5027,16 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>284</v>
-      </c>
       <c r="D15" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E15" s="8">
         <v>1</v>
@@ -4962,16 +5067,16 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B16" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>284</v>
-      </c>
       <c r="D16" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E16" s="8">
         <v>1</v>
@@ -5002,16 +5107,16 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B17" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>288</v>
-      </c>
       <c r="D17" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E17" s="8">
         <v>10</v>
@@ -5042,16 +5147,16 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>288</v>
-      </c>
       <c r="D18" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E18" s="8">
         <v>10</v>
@@ -5082,16 +5187,16 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E19" s="8">
         <v>132</v>
@@ -5122,16 +5227,16 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E20" s="8">
         <v>0</v>
@@ -5140,7 +5245,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K20" s="8">
         <v>0</v>
@@ -5164,16 +5269,16 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E21" s="8">
         <v>30</v>
@@ -5182,7 +5287,7 @@
         <v>2.05E-4</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K21" s="8">
         <v>0</v>
@@ -5206,16 +5311,16 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E22" s="8">
         <v>0.9</v>
@@ -5224,7 +5329,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K22" s="8">
         <v>0</v>
@@ -5248,16 +5353,16 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E23" s="8">
         <v>0.9</v>
@@ -5266,7 +5371,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K23" s="8">
         <v>0</v>
@@ -5290,16 +5395,16 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E24" s="8">
         <v>0.4</v>
@@ -5308,7 +5413,7 @@
         <v>1.2E-4</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K24" s="8">
         <v>0</v>
@@ -5332,16 +5437,16 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E25" s="8">
         <v>0.4</v>
@@ -5350,7 +5455,7 @@
         <v>1.2E-4</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K25" s="8">
         <v>0</v>
@@ -5374,16 +5479,16 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E26" s="8">
         <f>5000/22100</f>
@@ -5416,16 +5521,16 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E27" s="8">
         <v>20</v>
@@ -5434,7 +5539,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K27" s="8">
         <v>0</v>
@@ -5863,8 +5968,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H24" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5883,7 +5988,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -5894,7 +5999,7 @@
       <c r="H1" s="51"/>
       <c r="K1" s="9"/>
       <c r="L1" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M1" s="47"/>
       <c r="N1" s="48"/>
@@ -5904,7 +6009,7 @@
         <v>197</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>15</v>
@@ -5913,7 +6018,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>18</v>
@@ -5925,10 +6030,10 @@
         <v>23</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M2" s="16" t="s">
         <v>70</v>
@@ -5942,22 +6047,22 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>212</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>213</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>42</v>
@@ -5979,27 +6084,27 @@
         <v>free</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>216</v>
-      </c>
       <c r="D4" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>220</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>221</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>32</v>
@@ -6017,27 +6122,27 @@
         <v>free</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>218</v>
-      </c>
       <c r="E5" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>220</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>221</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>32</v>
@@ -6056,7 +6161,7 @@
         <v>custom</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -6090,7 +6195,7 @@
       <c r="H7" s="14"/>
       <c r="J7" s="25"/>
       <c r="L7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>33</v>
@@ -6111,7 +6216,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="14"/>
       <c r="J8" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>36</v>
@@ -6188,7 +6293,7 @@
         <v>free</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -6200,7 +6305,7 @@
         <v>free</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -6212,7 +6317,7 @@
         <v>free</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -6224,12 +6329,12 @@
         <v>spi0 SCLK</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -6239,7 +6344,7 @@
       <c r="G16" s="51"/>
       <c r="H16" s="51"/>
       <c r="K16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>57</v>
@@ -6249,7 +6354,7 @@
         <v>spi0 MISO/POCI</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1">
@@ -6257,7 +6362,7 @@
         <v>197</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>115</v>
@@ -6269,13 +6374,13 @@
         <v>66</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G17" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="H17" s="22" t="s">
         <v>223</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>224</v>
       </c>
       <c r="K17" s="39" t="str" cm="1">
         <f t="array" ref="K17:K19">_xlfn.UNIQUE(_xlfn._xlws.FILTER(G2:G1000, COUNTIF(G2:G1000, G2:G1000) &gt; 1))</f>
@@ -6289,12 +6394,12 @@
         <v>spi0 MOSI/PICO</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>38</v>
@@ -6331,7 +6436,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>106</v>
@@ -6368,7 +6473,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>106</v>
@@ -6402,7 +6507,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>106</v>
@@ -6436,7 +6541,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>106</v>
@@ -6467,12 +6572,12 @@
         <v>SWDIO</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>106</v>
@@ -6506,7 +6611,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>106</v>
@@ -6540,16 +6645,16 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>106</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>79</v>
@@ -6561,7 +6666,7 @@
         <v>88</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>90</v>
@@ -6574,16 +6679,16 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>106</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>79</v>
@@ -6595,7 +6700,7 @@
         <v>90</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>93</v>
@@ -6608,13 +6713,13 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>32</v>
@@ -6642,13 +6747,13 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>32</v>
@@ -6676,13 +6781,13 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>32</v>
@@ -6743,7 +6848,7 @@
         <v>free</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -6763,7 +6868,7 @@
         <v>free</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -6940,29 +7045,29 @@
     </row>
     <row r="47" spans="1:15">
       <c r="M47" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="N47" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="O47" s="10" t="s">
         <v>308</v>
-      </c>
-      <c r="N47" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="O47" s="10" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="M48" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="N48" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="O48" s="10" t="s">
         <v>231</v>
-      </c>
-      <c r="N48" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="O48" s="10" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -6977,7 +7082,7 @@
         <v>197</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>115</v>
@@ -6986,27 +7091,27 @@
         <v>66</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F50" s="27" t="s">
         <v>67</v>
       </c>
       <c r="G50" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="H50" s="28" t="s">
         <v>223</v>
-      </c>
-      <c r="H50" s="28" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B51" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" s="30" t="s">
         <v>238</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>239</v>
       </c>
       <c r="D51" s="31" t="s">
         <v>79</v>
@@ -7024,13 +7129,13 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>83</v>
@@ -7048,13 +7153,13 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B53" s="30" t="s">
         <v>106</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D53" s="31" t="s">
         <v>126</v>
@@ -7063,7 +7168,7 @@
         <v>151</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G53" s="33" t="s">
         <v>81</v>
@@ -7074,13 +7179,13 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>106</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>126</v>
@@ -7089,7 +7194,7 @@
         <v>151</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>85</v>
@@ -7100,36 +7205,36 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B55" s="30" t="s">
         <v>106</v>
       </c>
       <c r="C55" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="D55" s="31" t="s">
         <v>258</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>259</v>
       </c>
       <c r="E55" s="31" t="s">
         <v>151</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G55" s="33" t="s">
         <v>20</v>
       </c>
       <c r="H55" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>133</v>
@@ -7150,10 +7255,10 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C57" s="30" t="s">
         <v>135</v>
@@ -7174,13 +7279,13 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B58" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" s="20" t="s">
         <v>243</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>244</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>79</v>
@@ -7198,13 +7303,13 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D59" s="31" t="s">
         <v>79</v>
@@ -7222,22 +7327,22 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>83</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>103</v>
@@ -7248,13 +7353,13 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B61" s="30" t="s">
         <v>140</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D61" s="31" t="s">
         <v>79</v>
@@ -7272,13 +7377,13 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B62" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C62" s="20" t="s">
         <v>249</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>250</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>158</v>
@@ -7287,10 +7392,10 @@
         <v>151</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H62" s="14" t="s">
         <v>158</v>
@@ -7298,13 +7403,13 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D63" s="31" t="s">
         <v>79</v>
@@ -7313,7 +7418,7 @@
         <v>151</v>
       </c>
       <c r="F63" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>155</v>
@@ -7324,13 +7429,13 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>83</v>
@@ -7348,45 +7453,45 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B65" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D65" s="31" t="s">
         <v>255</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="D65" s="31" t="s">
-        <v>256</v>
       </c>
       <c r="E65" s="31" t="s">
         <v>151</v>
       </c>
       <c r="F65" s="32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G65" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H65" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>83</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="10" t="s">
@@ -7398,19 +7503,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D67" s="31" t="s">
         <v>83</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F67" s="32"/>
       <c r="G67" s="33" t="s">

--- a/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
+++ b/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\BeeMS\hardware\MasterBoard_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A185158D-A5E1-4930-A981-36186331D09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E56E70-1431-4A57-9DC9-1D3390E70CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="12210" windowHeight="12885" activeTab="1" xr2:uid="{4093912D-66FD-41A9-9A54-7EA13A7B271E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{4093912D-66FD-41A9-9A54-7EA13A7B271E}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0 routing" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="1.1 routing" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -152,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="333">
   <si>
     <t>last updated</t>
   </si>
@@ -1145,6 +1144,12 @@
   </si>
   <si>
     <t>the interlock LED is absurdly bright D:</t>
+  </si>
+  <si>
+    <t>the HRLV 2x3 connector pinout should match the GLV pinout</t>
+  </si>
+  <si>
+    <t>use this deticated isolated can transceiver : https://www.mouser.com/ProductDetail/Texas-Instruments/ISO1042DWV?qs=qSfuJ%252Bfl%2Fd6fIgLDsh3Gaw%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -4491,10 +4496,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82506FE1-B017-4B5D-A74A-A8C038FEF2D3}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4707,6 +4712,16 @@
     <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
+++ b/hardware/MasterBoard_A/Meta MasterBoard A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\BeeMS\hardware\MasterBoard_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E56E70-1431-4A57-9DC9-1D3390E70CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11A773B-0DE1-4758-AD27-7DBBD24BA3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{4093912D-66FD-41A9-9A54-7EA13A7B271E}"/>
   </bookViews>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="334">
   <si>
     <t>last updated</t>
   </si>
@@ -1150,6 +1150,9 @@
   </si>
   <si>
     <t>use this deticated isolated can transceiver : https://www.mouser.com/ProductDetail/Texas-Instruments/ISO1042DWV?qs=qSfuJ%252Bfl%2Fd6fIgLDsh3Gaw%3D%3D</t>
+  </si>
+  <si>
+    <t>Q502 on hrlv is failing. The BC diode allows power to C which then the gets passed to E.</t>
   </si>
 </sst>
 </file>
@@ -4496,7 +4499,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82506FE1-B017-4B5D-A74A-A8C038FEF2D3}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
@@ -4722,6 +4725,11 @@
     <row r="35" spans="2:2">
       <c r="B35" t="s">
         <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
